--- a/public/upload/categories.xlsx
+++ b/public/upload/categories.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="567">
   <si>
     <t>Category</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Virtual</t>
   </si>
   <si>
+    <t>Alias</t>
+  </si>
+  <si>
     <t>Income</t>
   </si>
   <si>
@@ -53,7 +56,10 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>Monetary income </t>
+    <t>income</t>
+  </si>
+  <si>
+    <t>Monetary income</t>
   </si>
   <si>
     <t>FF2/D10&amp;FF3/D10</t>
@@ -74,7 +80,7 @@
     <t>FF1</t>
   </si>
   <si>
-    <t>Monetary Donations </t>
+    <t>Monetary Donations</t>
   </si>
   <si>
     <t>FF2/D12&amp;FF3/D12</t>
@@ -101,7 +107,7 @@
     <t>1.1.2.4,1.1.2.4</t>
   </si>
   <si>
-    <t>State money </t>
+    <t>State money</t>
   </si>
   <si>
     <t>FF2/D15&amp;FF3/D15</t>
@@ -128,7 +134,7 @@
     <t>1.1.3.2,1.1.3.2</t>
   </si>
   <si>
-    <t>Income from other activities </t>
+    <t>Income from other activities</t>
   </si>
   <si>
     <t>FF2/D18&amp;FF3/D18</t>
@@ -182,7 +188,7 @@
     <t>1.1.5,1.1.5</t>
   </si>
   <si>
-    <t>Other monetary income </t>
+    <t>Other monetary income</t>
   </si>
   <si>
     <t>FF2/D24&amp;FF3/D24</t>
@@ -218,7 +224,7 @@
     <t>1.2.1.1,1.2.1.1</t>
   </si>
   <si>
-    <t>Through movable property </t>
+    <t>Through movable property</t>
   </si>
   <si>
     <t>FF2/D28&amp;FF3/D28</t>
@@ -245,6 +251,9 @@
     <t>FF3/D9</t>
   </si>
   <si>
+    <t>income_campaign</t>
+  </si>
+  <si>
     <t>FF3/D10</t>
   </si>
   <si>
@@ -374,6 +383,9 @@
     <t>1,1,1</t>
   </si>
   <si>
+    <t>expenses</t>
+  </si>
+  <si>
     <t>Salaries and Bonuses</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>FF4/D16&amp;FF5/D14&amp;FF5/D77&amp;FF6/D17</t>
   </si>
   <si>
-    <t>1.2.1,1.2.1,6.2,1.3 </t>
+    <t>1.2.1,1.2.1,6.2,1.3</t>
   </si>
   <si>
     <t>Domestic business trips</t>
@@ -635,7 +647,7 @@
     <t>1.2.8.4,1.2.8.4</t>
   </si>
   <si>
-    <t>Other ads </t>
+    <t>Other ads</t>
   </si>
   <si>
     <t>FF4/D43&amp;FF5/D41</t>
@@ -644,7 +656,7 @@
     <t>1.2.8.5,1.2.8.5</t>
   </si>
   <si>
-    <t>Educational events </t>
+    <t>Educational events</t>
   </si>
   <si>
     <t>FF4/D44&amp;FF5/D42</t>
@@ -689,7 +701,7 @@
     <t>1.2.13,1.2.13</t>
   </si>
   <si>
-    <t>Real estate leasing </t>
+    <t>Real estate leasing</t>
   </si>
   <si>
     <t>FF4/D49&amp;FF5/D47</t>
@@ -701,7 +713,7 @@
     <t>FF9.4</t>
   </si>
   <si>
-    <t>Vehicles leasing </t>
+    <t>Vehicles leasing</t>
   </si>
   <si>
     <t>FF4/D50&amp;FF5/D48</t>
@@ -713,7 +725,7 @@
     <t>FF9.5</t>
   </si>
   <si>
-    <t>Other property leasing </t>
+    <t>Other property leasing</t>
   </si>
   <si>
     <t>FF4/D51&amp;FF5/D49</t>
@@ -725,7 +737,7 @@
     <t>FF9.6</t>
   </si>
   <si>
-    <t>Cultural events </t>
+    <t>Cultural events</t>
   </si>
   <si>
     <t>FF4/D52&amp;FF5/D50</t>
@@ -734,16 +746,13 @@
     <t>1.2.14,1.2.14</t>
   </si>
   <si>
-    <t>Other </t>
-  </si>
-  <si>
     <t>FF4/D53&amp;FF5/D51</t>
   </si>
   <si>
     <t>1.2.15,1.2.15</t>
   </si>
   <si>
-    <t>Gifts for individuals </t>
+    <t>Gifts for individuals</t>
   </si>
   <si>
     <t>FF4/D54&amp;FF5/D52</t>
@@ -782,7 +791,7 @@
     <t>1.4,1.4</t>
   </si>
   <si>
-    <t>Social Security </t>
+    <t>Social Security</t>
   </si>
   <si>
     <t>FF4/D58&amp;FF5/D56</t>
@@ -800,7 +809,7 @@
     <t>1.6,1.6</t>
   </si>
   <si>
-    <t>Insurance </t>
+    <t>Insurance</t>
   </si>
   <si>
     <t>FF4/D60&amp;FF5/D58</t>
@@ -809,7 +818,7 @@
     <t>1.6.1,1.6.1</t>
   </si>
   <si>
-    <t>Taxes (excluding VAT and income tax) </t>
+    <t>Taxes (excluding VAT and income tax)</t>
   </si>
   <si>
     <t>FF4/D61&amp;FF5/D59</t>
@@ -962,6 +971,9 @@
     <t>FF5/D9</t>
   </si>
   <si>
+    <t>expenses_campaign</t>
+  </si>
+  <si>
     <t>FF5/D10</t>
   </si>
   <si>
@@ -1298,7 +1310,7 @@
     <t>FF5/D77</t>
   </si>
   <si>
-    <t>Teaching </t>
+    <t>Teaching</t>
   </si>
   <si>
     <t>FF5/D78</t>
@@ -1325,6 +1337,9 @@
     <t>FF6.1</t>
   </si>
   <si>
+    <t>reform_expenses</t>
+  </si>
+  <si>
     <t>FF6/D11</t>
   </si>
   <si>
@@ -1370,13 +1385,16 @@
     <t>FF7/D10</t>
   </si>
   <si>
-    <t>Financial Assets </t>
+    <t>Financial Assets</t>
   </si>
   <si>
     <t>FF7/D11</t>
   </si>
   <si>
-    <t>Cash in hand in Georgian Lari </t>
+    <t>financial_assets</t>
+  </si>
+  <si>
+    <t>Cash in hand in Georgian Lari</t>
   </si>
   <si>
     <t>FF7/D12</t>
@@ -1385,13 +1403,13 @@
     <t>FF8.1</t>
   </si>
   <si>
-    <t>Cash in hand in foreigh currency </t>
+    <t>Cash in hand in foreigh currency</t>
   </si>
   <si>
     <t>FF7/D13</t>
   </si>
   <si>
-    <t>Current bank account </t>
+    <t>Current bank account</t>
   </si>
   <si>
     <t>FF7/D14</t>
@@ -1400,19 +1418,19 @@
     <t>FF8</t>
   </si>
   <si>
-    <t>Foreign currency bank account </t>
+    <t>Foreign currency bank account</t>
   </si>
   <si>
     <t>FF7/D15</t>
   </si>
   <si>
-    <t>Deposits in Georgian Lari </t>
+    <t>Deposits in Georgian Lari</t>
   </si>
   <si>
     <t>FF7/D16</t>
   </si>
   <si>
-    <t>Deposits in foreign currency </t>
+    <t>Deposits in foreign currency</t>
   </si>
   <si>
     <t>FF7/D17</t>
@@ -1442,7 +1460,7 @@
     <t>FF7/D21</t>
   </si>
   <si>
-    <t>Receivables from deficits </t>
+    <t>Receivables from deficits</t>
   </si>
   <si>
     <t>FF7/D22</t>
@@ -1472,13 +1490,13 @@
     <t>FF7/D26</t>
   </si>
   <si>
-    <t>Prepaid rent </t>
+    <t>Prepaid rent</t>
   </si>
   <si>
     <t>FF7/D27</t>
   </si>
   <si>
-    <t>Other prepaid receivables </t>
+    <t>Other prepaid receivables</t>
   </si>
   <si>
     <t>FF7/D28</t>
@@ -1490,7 +1508,7 @@
     <t>FF7/D29</t>
   </si>
   <si>
-    <t>Receivable dividends </t>
+    <t>Receivable dividends</t>
   </si>
   <si>
     <t>FF7/D30</t>
@@ -1502,7 +1520,7 @@
     <t>FF7/D31</t>
   </si>
   <si>
-    <t>Other receivables </t>
+    <t>Other receivables</t>
   </si>
   <si>
     <t>FF7/D32</t>
@@ -1517,6 +1535,9 @@
     <t>FF9</t>
   </si>
   <si>
+    <t>property_assets</t>
+  </si>
+  <si>
     <t>FF7/D35</t>
   </si>
   <si>
@@ -1568,7 +1589,10 @@
     <t>FF9.7</t>
   </si>
   <si>
-    <t>Capital and other financial obligations </t>
+    <t>debts</t>
+  </si>
+  <si>
+    <t>Capital and other financial obligations</t>
   </si>
   <si>
     <t>FF7/D45</t>
@@ -1619,7 +1643,7 @@
     <t>FF7/D52</t>
   </si>
   <si>
-    <t>Contracted employee salaries </t>
+    <t>Contracted employee salaries</t>
   </si>
   <si>
     <t>FF7/D53</t>
@@ -1634,13 +1658,13 @@
     <t>FF7/D55</t>
   </si>
   <si>
-    <t>Blocked amount by court or other administrative bodies </t>
+    <t>Blocked amount by court or other administrative bodies</t>
   </si>
   <si>
     <t>FF7/D56</t>
   </si>
   <si>
-    <t>Advanced recieved rent </t>
+    <t>Advanced recieved rent</t>
   </si>
   <si>
     <t>FF7/D57</t>
@@ -1798,8 +1822,8 @@
   </sheetPr>
   <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J241" activeCellId="0" sqref="J241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95"/>
@@ -1837,40 +1861,45 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1880,18 +1909,18 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>2</v>
@@ -1902,18 +1931,18 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
@@ -1925,17 +1954,17 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -1945,14 +1974,14 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1962,15 +1991,15 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="n">
@@ -1983,14 +2012,14 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2001,14 +2030,14 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2018,15 +2047,15 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="n">
@@ -2039,14 +2068,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2057,14 +2086,14 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2075,14 +2104,14 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2093,14 +2122,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2110,15 +2139,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="n">
@@ -2130,15 +2159,15 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="n">
@@ -2149,16 +2178,16 @@
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2168,18 +2197,18 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>5</v>
@@ -2191,17 +2220,17 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
@@ -2211,17 +2240,17 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
@@ -2231,14 +2260,14 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2248,15 +2277,15 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="n">
@@ -2266,14 +2295,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -2282,18 +2311,20 @@
       <c r="I24" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1.1</v>
@@ -2306,18 +2337,18 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>7</v>
@@ -2328,18 +2359,18 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>8</v>
@@ -2351,17 +2382,17 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
@@ -2371,14 +2402,14 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2388,15 +2419,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="n">
@@ -2409,14 +2440,14 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2427,14 +2458,14 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2444,15 +2475,15 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="n">
@@ -2465,14 +2496,14 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2483,14 +2514,14 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2501,14 +2532,14 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2519,14 +2550,14 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2536,15 +2567,15 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="n">
@@ -2556,15 +2587,15 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="n">
@@ -2575,13 +2606,13 @@
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1.2</v>
@@ -2594,18 +2625,18 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>10</v>
@@ -2617,17 +2648,17 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
@@ -2637,17 +2668,17 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
@@ -2657,14 +2688,14 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2674,15 +2705,15 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="n">
@@ -2715,39 +2746,42 @@
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="J48" s="0" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>12</v>
@@ -2757,18 +2791,18 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2776,15 +2810,15 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2792,16 +2826,16 @@
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2810,15 +2844,15 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="1" t="n">
@@ -2830,17 +2864,17 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -2849,17 +2883,17 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -2867,15 +2901,15 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1" t="n">
@@ -2887,14 +2921,14 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2904,14 +2938,14 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2921,14 +2955,14 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2938,14 +2972,14 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2955,14 +2989,14 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2972,14 +3006,14 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2990,13 +3024,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3007,13 +3041,13 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3024,13 +3058,13 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3041,13 +3075,13 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3057,14 +3091,14 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3073,15 +3107,15 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="n">
@@ -3092,15 +3126,15 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1" t="n">
@@ -3111,15 +3145,15 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="n">
@@ -3130,15 +3164,15 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="n">
@@ -3150,14 +3184,14 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3167,14 +3201,14 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3183,15 +3217,15 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="n">
@@ -3202,15 +3236,15 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="1" t="n">
@@ -3222,14 +3256,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3239,14 +3273,14 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3256,14 +3290,14 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3273,14 +3307,14 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3290,14 +3324,14 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3306,15 +3340,15 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="1" t="n">
@@ -3325,15 +3359,15 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="1" t="n">
@@ -3344,15 +3378,15 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="1" t="n">
@@ -3363,15 +3397,15 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="1" t="n">
@@ -3382,15 +3416,15 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="1" t="n">
@@ -3402,17 +3436,17 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -3421,17 +3455,17 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -3440,17 +3474,17 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -3458,15 +3492,15 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="1" t="n">
@@ -3477,15 +3511,15 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="1" t="n">
@@ -3495,19 +3529,19 @@
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>99</v>
@@ -3517,15 +3551,15 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3534,15 +3568,15 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3550,16 +3584,16 @@
     <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1" t="n">
@@ -3569,16 +3603,16 @@
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="1" t="n">
@@ -3588,16 +3622,16 @@
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="1" t="n">
@@ -3608,15 +3642,15 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3625,15 +3659,15 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3642,15 +3676,15 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3659,15 +3693,15 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3676,15 +3710,15 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3692,16 +3726,16 @@
     <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="1" t="n">
@@ -3712,15 +3746,15 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3729,12 +3763,12 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>2.2</v>
@@ -3746,15 +3780,15 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3763,15 +3797,15 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3780,15 +3814,15 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3797,15 +3831,15 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3814,15 +3848,15 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3830,16 +3864,16 @@
     <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="1" t="n">
@@ -3849,16 +3883,16 @@
     <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="1" t="n">
@@ -3869,15 +3903,15 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3886,15 +3920,15 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3902,16 +3936,16 @@
     <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="1" t="n">
@@ -3942,14 +3976,14 @@
     </row>
     <row r="117" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>1</v>
@@ -3958,17 +3992,20 @@
       <c r="I117" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="J117" s="0" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1.1</v>
@@ -3982,15 +4019,15 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -3999,15 +4036,15 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4015,13 +4052,13 @@
     <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1.2</v>
@@ -4033,15 +4070,15 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="1" t="n">
@@ -4053,14 +4090,14 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -4070,14 +4107,14 @@
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -4086,15 +4123,15 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="1" t="n">
@@ -4106,14 +4143,14 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -4123,14 +4160,14 @@
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -4140,14 +4177,14 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4157,14 +4194,14 @@
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4174,14 +4211,14 @@
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -4191,14 +4228,14 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -4209,13 +4246,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -4226,13 +4263,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -4243,13 +4280,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -4260,13 +4297,13 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -4276,14 +4313,14 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -4292,15 +4329,15 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="1" t="n">
@@ -4311,15 +4348,15 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="1" t="n">
@@ -4330,15 +4367,15 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="1" t="n">
@@ -4349,15 +4386,15 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="1" t="n">
@@ -4369,14 +4406,14 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -4386,14 +4423,14 @@
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4402,15 +4439,15 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="1" t="n">
@@ -4421,15 +4458,15 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="1" t="n">
@@ -4441,14 +4478,14 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4458,14 +4495,14 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -4475,14 +4512,14 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -4492,14 +4529,14 @@
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -4509,14 +4546,14 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -4525,15 +4562,15 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="1" t="n">
@@ -4544,15 +4581,15 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="1" t="n">
@@ -4563,15 +4600,15 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="1" t="n">
@@ -4582,15 +4619,15 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="1" t="n">
@@ -4601,15 +4638,15 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="1" t="n">
@@ -4621,14 +4658,14 @@
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -4638,14 +4675,14 @@
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -4655,14 +4692,14 @@
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -4671,15 +4708,15 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="1" t="n">
@@ -4690,15 +4727,15 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="1" t="n">
@@ -4708,13 +4745,13 @@
     <row r="160" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1.3</v>
@@ -4728,15 +4765,15 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -4745,15 +4782,15 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -4761,13 +4798,13 @@
     <row r="163" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1.4</v>
@@ -4780,13 +4817,13 @@
     <row r="164" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1.5</v>
@@ -4799,13 +4836,13 @@
     <row r="165" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1.6</v>
@@ -4819,15 +4856,15 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -4836,15 +4873,15 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -4853,15 +4890,15 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -4870,15 +4907,15 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -4887,15 +4924,15 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -4903,13 +4940,13 @@
     <row r="171" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>2</v>
@@ -4923,12 +4960,12 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>2.1</v>
@@ -4940,12 +4977,12 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>2.2</v>
@@ -4957,12 +4994,12 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>2.3</v>
@@ -4974,12 +5011,12 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>2.4</v>
@@ -4991,12 +5028,12 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>2.5</v>
@@ -5008,12 +5045,12 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>2.6</v>
@@ -5024,13 +5061,13 @@
     <row r="178" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>3</v>
@@ -5043,13 +5080,13 @@
     <row r="179" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>4</v>
@@ -5063,12 +5100,12 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>4.1</v>
@@ -5080,12 +5117,12 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>4.2</v>
@@ -5096,13 +5133,13 @@
     <row r="182" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>5</v>
@@ -5115,13 +5152,13 @@
     <row r="183" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>6</v>
@@ -5135,12 +5172,12 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>6.1</v>
@@ -5152,12 +5189,12 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>6.2</v>
@@ -5169,12 +5206,12 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>6.3</v>
@@ -5186,12 +5223,12 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>6.4</v>
@@ -5203,12 +5240,12 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>6.5</v>
@@ -5220,12 +5257,12 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>6.6</v>
@@ -5257,39 +5294,42 @@
     </row>
     <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I192" s="2"/>
+      <c r="J192" s="0" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I193" s="2"/>
     </row>
@@ -5297,18 +5337,18 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I194" s="2"/>
     </row>
@@ -5316,37 +5356,37 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I196" s="2"/>
     </row>
@@ -5354,18 +5394,18 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I197" s="2"/>
     </row>
@@ -5373,37 +5413,37 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>1.3</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I199" s="2"/>
     </row>
@@ -5411,18 +5451,18 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I200" s="2"/>
     </row>
@@ -5430,75 +5470,75 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>1.4</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>1.6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I204" s="2"/>
     </row>
@@ -5531,7 +5571,7 @@
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
@@ -5539,37 +5579,40 @@
     </row>
     <row r="208" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="J208" s="0" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>1110</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="I209" s="1" t="n">
         <v>22</v>
@@ -5578,13 +5621,13 @@
     <row r="210" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>1120</v>
@@ -5597,19 +5640,19 @@
     <row r="211" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I211" s="1" t="n">
         <v>24</v>
@@ -5618,19 +5661,19 @@
     <row r="212" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I212" s="1" t="n">
         <v>25</v>
@@ -5639,19 +5682,19 @@
     <row r="213" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I213" s="1" t="n">
         <v>26</v>
@@ -5660,19 +5703,19 @@
     <row r="214" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G214" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>27</v>
@@ -5681,19 +5724,19 @@
     <row r="215" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I215" s="1" t="n">
         <v>99</v>
@@ -5702,13 +5745,13 @@
     <row r="216" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>1300</v>
@@ -5721,13 +5764,13 @@
     <row r="217" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>1410</v>
@@ -5740,13 +5783,13 @@
     <row r="218" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>1421</v>
@@ -5759,13 +5802,13 @@
     <row r="219" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>1422</v>
@@ -5778,13 +5821,13 @@
     <row r="220" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>1423</v>
@@ -5797,13 +5840,13 @@
     <row r="221" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>1431</v>
@@ -5816,13 +5859,13 @@
     <row r="222" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>1432</v>
@@ -5835,13 +5878,13 @@
     <row r="223" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>1433</v>
@@ -5854,13 +5897,13 @@
     <row r="224" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>1441</v>
@@ -5873,13 +5916,13 @@
     <row r="225" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>1442</v>
@@ -5892,13 +5935,13 @@
     <row r="226" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G226" s="1" t="n">
         <v>1443</v>
@@ -5911,13 +5954,13 @@
     <row r="227" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G227" s="1" t="n">
         <v>1444</v>
@@ -5930,13 +5973,13 @@
     <row r="228" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G228" s="1" t="n">
         <v>1445</v>
@@ -5949,13 +5992,13 @@
     <row r="229" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G229" s="1" t="n">
         <v>1446</v>
@@ -5967,39 +6010,42 @@
     </row>
     <row r="230" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="I230" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G231" s="1" t="n">
         <v>2110</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="I231" s="1" t="n">
         <v>29</v>
@@ -6008,19 +6054,19 @@
     <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G232" s="1" t="n">
         <v>2120</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="I232" s="1" t="n">
         <v>30</v>
@@ -6029,13 +6075,13 @@
     <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G233" s="1" t="n">
         <v>2130</v>
@@ -6048,13 +6094,13 @@
     <row r="234" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="G234" s="1" t="n">
         <v>2140</v>
@@ -6067,13 +6113,13 @@
     <row r="235" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G235" s="1" t="n">
         <v>2150</v>
@@ -6086,13 +6132,13 @@
     <row r="236" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="G236" s="1" t="n">
         <v>2220</v>
@@ -6105,13 +6151,13 @@
     <row r="237" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G237" s="1" t="n">
         <v>2300</v>
@@ -6124,13 +6170,13 @@
     <row r="238" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="G238" s="1" t="n">
         <v>2400</v>
@@ -6164,37 +6210,40 @@
     </row>
     <row r="241" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="I241" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I242" s="2"/>
     </row>
@@ -6202,12 +6251,12 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G243" s="1" t="n">
         <v>3100</v>
@@ -6222,11 +6271,11 @@
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G244" s="1" t="n">
         <v>3210</v>
@@ -6239,11 +6288,11 @@
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G245" s="1" t="n">
         <v>3221</v>
@@ -6256,11 +6305,11 @@
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G246" s="1" t="n">
         <v>3222</v>
@@ -6273,11 +6322,11 @@
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G247" s="1" t="n">
         <v>3223</v>
@@ -6290,11 +6339,11 @@
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="1" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G248" s="1" t="n">
         <v>3224</v>
@@ -6307,11 +6356,11 @@
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G249" s="1" t="n">
         <v>3231</v>
@@ -6324,11 +6373,11 @@
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="1" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G250" s="1" t="n">
         <v>3232</v>
@@ -6341,11 +6390,11 @@
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G251" s="1" t="n">
         <v>3234</v>
@@ -6358,11 +6407,11 @@
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="1" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="1" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G252" s="1" t="n">
         <v>3236</v>
@@ -6375,11 +6424,11 @@
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="G253" s="1" t="n">
         <v>3237</v>
@@ -6392,11 +6441,11 @@
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="1" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G254" s="1" t="n">
         <v>3241</v>
@@ -6409,11 +6458,11 @@
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G255" s="1" t="n">
         <v>3242</v>
@@ -6426,11 +6475,11 @@
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="1" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="G256" s="1" t="n">
         <v>3243</v>
@@ -6443,11 +6492,11 @@
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G257" s="1" t="n">
         <v>3245</v>
@@ -6460,11 +6509,11 @@
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="1" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="G258" s="1" t="n">
         <v>3246</v>
@@ -6476,12 +6525,12 @@
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -6494,11 +6543,11 @@
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="1" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G260" s="1" t="n">
         <v>5100</v>
@@ -6511,11 +6560,11 @@
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G261" s="1" t="n">
         <v>5220</v>
@@ -6528,11 +6577,11 @@
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G262" s="1" t="n">
         <v>5230</v>

--- a/public/upload/categories.xlsx
+++ b/public/upload/categories.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="569">
   <si>
     <t>Category</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Alias</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>ru</t>
   </si>
   <si>
     <t>Income</t>
@@ -1820,10 +1826,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J263"/>
+  <dimension ref="A1:L263"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J241" activeCellId="0" sqref="J241"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95"/>
@@ -1864,42 +1870,48 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1909,18 +1921,18 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>2</v>
@@ -1931,18 +1943,18 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
@@ -1954,17 +1966,17 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -1974,14 +1986,14 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1991,15 +2003,15 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="n">
@@ -2012,14 +2024,14 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2030,14 +2042,14 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2047,15 +2059,15 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="n">
@@ -2068,14 +2080,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2086,14 +2098,14 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2104,14 +2116,14 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2122,14 +2134,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2139,15 +2151,15 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="n">
@@ -2159,15 +2171,15 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="n">
@@ -2178,16 +2190,16 @@
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2197,18 +2209,18 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>5</v>
@@ -2220,17 +2232,17 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
@@ -2240,17 +2252,17 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
@@ -2260,14 +2272,14 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2277,15 +2289,15 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="n">
@@ -2295,14 +2307,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -2312,19 +2324,19 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1.1</v>
@@ -2337,18 +2349,18 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>7</v>
@@ -2359,18 +2371,18 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>8</v>
@@ -2382,17 +2394,17 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
@@ -2402,14 +2414,14 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2419,15 +2431,15 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="n">
@@ -2440,14 +2452,14 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2458,14 +2470,14 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2475,15 +2487,15 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="n">
@@ -2496,14 +2508,14 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2514,14 +2526,14 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2532,14 +2544,14 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2550,14 +2562,14 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2567,15 +2579,15 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="n">
@@ -2587,15 +2599,15 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="n">
@@ -2606,13 +2618,13 @@
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1.2</v>
@@ -2625,18 +2637,18 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>10</v>
@@ -2648,17 +2660,17 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
@@ -2668,17 +2680,17 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
@@ -2688,14 +2700,14 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2705,15 +2717,15 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="n">
@@ -2746,42 +2758,42 @@
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="n">
         <v>11</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>12</v>
@@ -2791,18 +2803,18 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2810,15 +2822,15 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2826,16 +2838,16 @@
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2844,15 +2856,15 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="1" t="n">
@@ -2864,17 +2876,17 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -2883,17 +2895,17 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -2901,15 +2913,15 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1" t="n">
@@ -2921,14 +2933,14 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2938,14 +2950,14 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2955,14 +2967,14 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2972,14 +2984,14 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2989,14 +3001,14 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3006,14 +3018,14 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3024,13 +3036,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3041,13 +3053,13 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3058,13 +3070,13 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3075,13 +3087,13 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3091,14 +3103,14 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3107,15 +3119,15 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="n">
@@ -3126,15 +3138,15 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1" t="n">
@@ -3145,15 +3157,15 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="n">
@@ -3164,15 +3176,15 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="n">
@@ -3184,14 +3196,14 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3201,14 +3213,14 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -3217,15 +3229,15 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="n">
@@ -3236,15 +3248,15 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="1" t="n">
@@ -3256,14 +3268,14 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3273,14 +3285,14 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3290,14 +3302,14 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3307,14 +3319,14 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3324,14 +3336,14 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3340,15 +3352,15 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="1" t="n">
@@ -3359,15 +3371,15 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="1" t="n">
@@ -3378,15 +3390,15 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="1" t="n">
@@ -3397,15 +3409,15 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="1" t="n">
@@ -3416,15 +3428,15 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="1" t="n">
@@ -3436,17 +3448,17 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I86" s="2"/>
     </row>
@@ -3455,17 +3467,17 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I87" s="2"/>
     </row>
@@ -3474,17 +3486,17 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I88" s="2"/>
     </row>
@@ -3492,15 +3504,15 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="1" t="n">
@@ -3511,15 +3523,15 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="1" t="n">
@@ -3529,19 +3541,19 @@
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>99</v>
@@ -3551,15 +3563,15 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -3568,15 +3580,15 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3584,16 +3596,16 @@
     <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1" t="n">
@@ -3603,16 +3615,16 @@
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="1" t="n">
@@ -3622,16 +3634,16 @@
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="1" t="n">
@@ -3642,15 +3654,15 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -3659,15 +3671,15 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -3676,15 +3688,15 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -3693,15 +3705,15 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -3710,15 +3722,15 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -3726,16 +3738,16 @@
     <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="1" t="n">
@@ -3746,15 +3758,15 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -3763,12 +3775,12 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>2.2</v>
@@ -3780,15 +3792,15 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -3797,15 +3809,15 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -3814,15 +3826,15 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3831,15 +3843,15 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -3848,15 +3860,15 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -3864,16 +3876,16 @@
     <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="1" t="n">
@@ -3883,16 +3895,16 @@
     <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="1" t="n">
@@ -3903,15 +3915,15 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -3920,15 +3932,15 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -3936,16 +3948,16 @@
     <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="1" t="n">
@@ -3976,14 +3988,14 @@
     </row>
     <row r="117" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>1</v>
@@ -3993,19 +4005,19 @@
         <v>16</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1.1</v>
@@ -4019,15 +4031,15 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -4036,15 +4048,15 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -4052,13 +4064,13 @@
     <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1.2</v>
@@ -4070,15 +4082,15 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="1" t="n">
@@ -4090,14 +4102,14 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -4107,14 +4119,14 @@
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -4123,15 +4135,15 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="1" t="n">
@@ -4143,14 +4155,14 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -4160,14 +4172,14 @@
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -4177,14 +4189,14 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -4194,14 +4206,14 @@
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -4211,14 +4223,14 @@
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -4228,14 +4240,14 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -4246,13 +4258,13 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -4263,13 +4275,13 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -4280,13 +4292,13 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -4297,13 +4309,13 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -4313,14 +4325,14 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -4329,15 +4341,15 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="1" t="n">
@@ -4348,15 +4360,15 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="1" t="n">
@@ -4367,15 +4379,15 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="1" t="n">
@@ -4386,15 +4398,15 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="1" t="n">
@@ -4406,14 +4418,14 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -4423,14 +4435,14 @@
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -4439,15 +4451,15 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="1" t="n">
@@ -4458,15 +4470,15 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="1" t="n">
@@ -4478,14 +4490,14 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -4495,14 +4507,14 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -4512,14 +4524,14 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -4529,14 +4541,14 @@
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -4546,14 +4558,14 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -4562,15 +4574,15 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="1" t="n">
@@ -4581,15 +4593,15 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="1" t="n">
@@ -4600,15 +4612,15 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="1" t="n">
@@ -4619,15 +4631,15 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="1" t="n">
@@ -4638,15 +4650,15 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="1" t="n">
@@ -4658,14 +4670,14 @@
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -4675,14 +4687,14 @@
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -4692,14 +4704,14 @@
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -4708,15 +4720,15 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="1" t="n">
@@ -4727,15 +4739,15 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="1" t="n">
@@ -4745,13 +4757,13 @@
     <row r="160" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1.3</v>
@@ -4765,15 +4777,15 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -4782,15 +4794,15 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -4798,13 +4810,13 @@
     <row r="163" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1.4</v>
@@ -4817,13 +4829,13 @@
     <row r="164" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1.5</v>
@@ -4836,13 +4848,13 @@
     <row r="165" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1.6</v>
@@ -4856,15 +4868,15 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -4873,15 +4885,15 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -4890,15 +4902,15 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -4907,15 +4919,15 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -4924,15 +4936,15 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -4940,13 +4952,13 @@
     <row r="171" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>2</v>
@@ -4960,12 +4972,12 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>2.1</v>
@@ -4977,12 +4989,12 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>2.2</v>
@@ -4994,12 +5006,12 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>2.3</v>
@@ -5011,12 +5023,12 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>2.4</v>
@@ -5028,12 +5040,12 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>2.5</v>
@@ -5045,12 +5057,12 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>2.6</v>
@@ -5061,13 +5073,13 @@
     <row r="178" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>3</v>
@@ -5080,13 +5092,13 @@
     <row r="179" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>4</v>
@@ -5100,12 +5112,12 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>4.1</v>
@@ -5117,12 +5129,12 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>4.2</v>
@@ -5133,13 +5145,13 @@
     <row r="182" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>5</v>
@@ -5152,13 +5164,13 @@
     <row r="183" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>6</v>
@@ -5172,12 +5184,12 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>6.1</v>
@@ -5189,12 +5201,12 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>6.2</v>
@@ -5206,12 +5218,12 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>6.3</v>
@@ -5223,12 +5235,12 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>6.4</v>
@@ -5240,12 +5252,12 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>6.5</v>
@@ -5257,12 +5269,12 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>6.6</v>
@@ -5294,42 +5306,42 @@
     </row>
     <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I193" s="2"/>
     </row>
@@ -5337,18 +5349,18 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I194" s="2"/>
     </row>
@@ -5356,37 +5368,37 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I196" s="2"/>
     </row>
@@ -5394,18 +5406,18 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I197" s="2"/>
     </row>
@@ -5413,37 +5425,37 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>1.3</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I199" s="2"/>
     </row>
@@ -5451,18 +5463,18 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I200" s="2"/>
     </row>
@@ -5470,75 +5482,75 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>1.4</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>1.6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I204" s="2"/>
     </row>
@@ -5571,7 +5583,7 @@
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
@@ -5579,14 +5591,14 @@
     </row>
     <row r="208" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
@@ -5594,25 +5606,25 @@
         <v>21</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>1110</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I209" s="1" t="n">
         <v>22</v>
@@ -5621,13 +5633,13 @@
     <row r="210" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>1120</v>
@@ -5640,19 +5652,19 @@
     <row r="211" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I211" s="1" t="n">
         <v>24</v>
@@ -5661,19 +5673,19 @@
     <row r="212" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I212" s="1" t="n">
         <v>25</v>
@@ -5682,19 +5694,19 @@
     <row r="213" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I213" s="1" t="n">
         <v>26</v>
@@ -5703,19 +5715,19 @@
     <row r="214" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G214" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>27</v>
@@ -5724,19 +5736,19 @@
     <row r="215" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I215" s="1" t="n">
         <v>99</v>
@@ -5745,13 +5757,13 @@
     <row r="216" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>1300</v>
@@ -5764,13 +5776,13 @@
     <row r="217" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>1410</v>
@@ -5783,13 +5795,13 @@
     <row r="218" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>1421</v>
@@ -5802,13 +5814,13 @@
     <row r="219" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>1422</v>
@@ -5821,13 +5833,13 @@
     <row r="220" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>1423</v>
@@ -5840,13 +5852,13 @@
     <row r="221" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>1431</v>
@@ -5859,13 +5871,13 @@
     <row r="222" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>1432</v>
@@ -5878,13 +5890,13 @@
     <row r="223" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>1433</v>
@@ -5897,13 +5909,13 @@
     <row r="224" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>1441</v>
@@ -5916,13 +5928,13 @@
     <row r="225" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>1442</v>
@@ -5935,13 +5947,13 @@
     <row r="226" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G226" s="1" t="n">
         <v>1443</v>
@@ -5954,13 +5966,13 @@
     <row r="227" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G227" s="1" t="n">
         <v>1444</v>
@@ -5973,13 +5985,13 @@
     <row r="228" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G228" s="1" t="n">
         <v>1445</v>
@@ -5992,13 +6004,13 @@
     <row r="229" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G229" s="1" t="n">
         <v>1446</v>
@@ -6010,42 +6022,42 @@
     </row>
     <row r="230" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I230" s="1" t="n">
         <v>28</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G231" s="1" t="n">
         <v>2110</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I231" s="1" t="n">
         <v>29</v>
@@ -6054,19 +6066,19 @@
     <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G232" s="1" t="n">
         <v>2120</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I232" s="1" t="n">
         <v>30</v>
@@ -6075,13 +6087,13 @@
     <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G233" s="1" t="n">
         <v>2130</v>
@@ -6094,13 +6106,13 @@
     <row r="234" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G234" s="1" t="n">
         <v>2140</v>
@@ -6113,13 +6125,13 @@
     <row r="235" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G235" s="1" t="n">
         <v>2150</v>
@@ -6132,13 +6144,13 @@
     <row r="236" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G236" s="1" t="n">
         <v>2220</v>
@@ -6151,13 +6163,13 @@
     <row r="237" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G237" s="1" t="n">
         <v>2300</v>
@@ -6170,13 +6182,13 @@
     <row r="238" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G238" s="1" t="n">
         <v>2400</v>
@@ -6210,40 +6222,40 @@
     </row>
     <row r="241" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I241" s="1" t="n">
         <v>31</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I242" s="2"/>
     </row>
@@ -6251,12 +6263,12 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G243" s="1" t="n">
         <v>3100</v>
@@ -6271,11 +6283,11 @@
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G244" s="1" t="n">
         <v>3210</v>
@@ -6288,11 +6300,11 @@
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G245" s="1" t="n">
         <v>3221</v>
@@ -6305,11 +6317,11 @@
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G246" s="1" t="n">
         <v>3222</v>
@@ -6322,11 +6334,11 @@
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G247" s="1" t="n">
         <v>3223</v>
@@ -6339,11 +6351,11 @@
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G248" s="1" t="n">
         <v>3224</v>
@@ -6356,11 +6368,11 @@
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G249" s="1" t="n">
         <v>3231</v>
@@ -6373,11 +6385,11 @@
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G250" s="1" t="n">
         <v>3232</v>
@@ -6390,11 +6402,11 @@
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G251" s="1" t="n">
         <v>3234</v>
@@ -6407,11 +6419,11 @@
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G252" s="1" t="n">
         <v>3236</v>
@@ -6424,11 +6436,11 @@
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G253" s="1" t="n">
         <v>3237</v>
@@ -6441,11 +6453,11 @@
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G254" s="1" t="n">
         <v>3241</v>
@@ -6458,11 +6470,11 @@
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G255" s="1" t="n">
         <v>3242</v>
@@ -6475,11 +6487,11 @@
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G256" s="1" t="n">
         <v>3243</v>
@@ -6492,11 +6504,11 @@
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G257" s="1" t="n">
         <v>3245</v>
@@ -6509,11 +6521,11 @@
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G258" s="1" t="n">
         <v>3246</v>
@@ -6525,12 +6537,12 @@
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -6543,11 +6555,11 @@
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G260" s="1" t="n">
         <v>5100</v>
@@ -6560,11 +6572,11 @@
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G261" s="1" t="n">
         <v>5220</v>
@@ -6577,11 +6589,11 @@
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G262" s="1" t="n">
         <v>5230</v>

--- a/public/upload/categories.xlsx
+++ b/public/upload/categories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="144" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="76" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="889">
   <si>
     <t>Category</t>
   </si>
@@ -65,6 +65,12 @@
     <t>income</t>
   </si>
   <si>
+    <t>შემოსავლები</t>
+  </si>
+  <si>
+    <t>Доходы</t>
+  </si>
+  <si>
     <t>Monetary income</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
     <t>1.1,1.1</t>
   </si>
   <si>
+    <t>შემოსავლები ფულადი სახით</t>
+  </si>
+  <si>
+    <t>Денежный доход</t>
+  </si>
+  <si>
     <t>Membership fees</t>
   </si>
   <si>
@@ -86,6 +98,12 @@
     <t>FF1</t>
   </si>
   <si>
+    <t>საწევრო შენატანები</t>
+  </si>
+  <si>
+    <t>Членские взносы</t>
+  </si>
+  <si>
     <t>Monetary Donations</t>
   </si>
   <si>
@@ -95,6 +113,12 @@
     <t>1.1.2,1.1.2</t>
   </si>
   <si>
+    <t>შემოწირულებები</t>
+  </si>
+  <si>
+    <t>Пожертвования</t>
+  </si>
+  <si>
     <t>Donations from individuals or companies</t>
   </si>
   <si>
@@ -104,6 +128,12 @@
     <t>1.1.2.1,1.1.2.1</t>
   </si>
   <si>
+    <t>შემოწირულებები ფიზიკური პირებისაგან</t>
+  </si>
+  <si>
+    <t>Пожертвования от частных лиц</t>
+  </si>
+  <si>
     <t>Donations from public events</t>
   </si>
   <si>
@@ -113,6 +143,12 @@
     <t>1.1.2.4,1.1.2.4</t>
   </si>
   <si>
+    <t>საჯარო ღონისძიებების მეშვეობით მიღებული შემოწირულებები</t>
+  </si>
+  <si>
+    <t>Пожертвования полученные в ходе общественных мероприятий</t>
+  </si>
+  <si>
     <t>State money</t>
   </si>
   <si>
@@ -122,6 +158,12 @@
     <t>1.1.3,1.1.3</t>
   </si>
   <si>
+    <t>სახელმწიფოს მიერ გამოყოფილი თანხები</t>
+  </si>
+  <si>
+    <t>Государственные средства</t>
+  </si>
+  <si>
     <t>Budget funds</t>
   </si>
   <si>
@@ -131,6 +173,12 @@
     <t>1.1.3.1,1.1.3.1</t>
   </si>
   <si>
+    <t>საბიუჯეტო დაფინანსება</t>
+  </si>
+  <si>
+    <t>Бюджетное финансирование</t>
+  </si>
+  <si>
     <t>Center funds</t>
   </si>
   <si>
@@ -140,6 +188,12 @@
     <t>1.1.3.2,1.1.3.2</t>
   </si>
   <si>
+    <t>საარჩევნო სისტემების განვითარების, რეფორმებისა და სწავლების ცენტრიდან მიღებული სახსრები</t>
+  </si>
+  <si>
+    <t>Средства, полученные от центра развития избирательных систем, реформ и учений </t>
+  </si>
+  <si>
     <t>Income from other activities</t>
   </si>
   <si>
@@ -149,6 +203,12 @@
     <t>1.1.4,1.1.4</t>
   </si>
   <si>
+    <t>დამხმარე ხასიათის საქმიანობიდან მიღებული სახსრები</t>
+  </si>
+  <si>
+    <t>Средства, полученные от вспомогательной деятельности </t>
+  </si>
+  <si>
     <t>Symbology</t>
   </si>
   <si>
@@ -158,6 +218,12 @@
     <t>1.1.4.1,1.1.4.1</t>
   </si>
   <si>
+    <t>სიმბოლიკის გავრცელებით მიღებული შემოსავლები</t>
+  </si>
+  <si>
+    <t>Средства, полученные от распространения символики</t>
+  </si>
+  <si>
     <t>Lectures</t>
   </si>
   <si>
@@ -167,6 +233,12 @@
     <t>1.1.4.2,1.1.4.2</t>
   </si>
   <si>
+    <t>ლექციებით გამოფენებით და სხვა მსგავსი ღონისძიებების მოწყობით მიღებული შემოსავლები</t>
+  </si>
+  <si>
+    <t>Доходы полученные от лекций выставок и других подобных мероприятий </t>
+  </si>
+  <si>
     <t>Publishing</t>
   </si>
   <si>
@@ -176,6 +248,12 @@
     <t>1.1.4.3,1.1.4.3</t>
   </si>
   <si>
+    <t>საგამომცემლო და სხვა საქმიანობით მიღებული თანხები</t>
+  </si>
+  <si>
+    <t>Суммы полученные от издательской и других видов деятельности </t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
@@ -185,6 +263,12 @@
     <t>1.1.4.4,1.1.4.4</t>
   </si>
   <si>
+    <t>დამხმარე ხასიათის საქმიანობიდან მიღებული სხვა სახსრები</t>
+  </si>
+  <si>
+    <t>Средства, полученные от другой вспомогательной деятельности</t>
+  </si>
+  <si>
     <t>Loans from banks</t>
   </si>
   <si>
@@ -194,6 +278,12 @@
     <t>1.1.5,1.1.5</t>
   </si>
   <si>
+    <t>კომერციული ბანკებიდან მიღებული სესხები/კრედიტები</t>
+  </si>
+  <si>
+    <t>Займы / кредиты от коммерческих банков</t>
+  </si>
+  <si>
     <t>Other monetary income</t>
   </si>
   <si>
@@ -203,6 +293,12 @@
     <t>1.1.6,1.1.6</t>
   </si>
   <si>
+    <t>სხვა ფულადი შემოსავლები </t>
+  </si>
+  <si>
+    <t>Прочие денежные доходы</t>
+  </si>
+  <si>
     <t>Non-monetary income</t>
   </si>
   <si>
@@ -212,6 +308,12 @@
     <t>1.2,1.2</t>
   </si>
   <si>
+    <t>შემოსავლები არაფულადი სახით</t>
+  </si>
+  <si>
+    <t>Безналичные доходы </t>
+  </si>
+  <si>
     <t>Non-monetary Donations from individuals or companies</t>
   </si>
   <si>
@@ -221,6 +323,9 @@
     <t>1.2.1,1.2.1</t>
   </si>
   <si>
+    <t>Безналичные пожертвования от частных лиц</t>
+  </si>
+  <si>
     <t>Through immovable property</t>
   </si>
   <si>
@@ -230,6 +335,12 @@
     <t>1.2.1.1,1.2.1.1</t>
   </si>
   <si>
+    <t>შემოწირულებები ფიზიკური პირებისაგან (უძრავი ქონება)</t>
+  </si>
+  <si>
+    <t>Пожертвования от частных лиц (недвижимость)</t>
+  </si>
+  <si>
     <t>Through movable property</t>
   </si>
   <si>
@@ -239,18 +350,36 @@
     <t>1.2.1.2,1.2.1.2</t>
   </si>
   <si>
+    <t>შემოწირულებები ფიზიკური პირებისაგან (მოძრავი ქონება)</t>
+  </si>
+  <si>
+    <t>Пожертвования от частных лиц (движимое имущество)</t>
+  </si>
+  <si>
     <t>FF2/D29&amp;FF3/D29</t>
   </si>
   <si>
     <t>1.2.1.3,1.2.1.3</t>
   </si>
   <si>
+    <t>შემოწირულებები ფიზიკური პირებისაგან (სხვა)</t>
+  </si>
+  <si>
+    <t>Пожертвования от частных лиц (другое)</t>
+  </si>
+  <si>
     <t>FF2/D30&amp;FF3/D30</t>
   </si>
   <si>
     <t>1.2.2,1.2.2</t>
   </si>
   <si>
+    <t>სხვა არაფულადი შემოსავლები (მათ შორის მოგება კურსთაშორისი სხვაობებიდან)</t>
+  </si>
+  <si>
+    <t>Другие безналичные доходы </t>
+  </si>
+  <si>
     <t>Campaign income</t>
   </si>
   <si>
@@ -260,9 +389,18 @@
     <t>income_campaign</t>
   </si>
   <si>
+    <t>საარჩევნო კამპანიის ფონდის შემოსავლები</t>
+  </si>
+  <si>
+    <t>Доходы выборного фонда</t>
+  </si>
+  <si>
     <t>FF3/D10</t>
   </si>
   <si>
+    <t>Доходы в виде денежных средств</t>
+  </si>
+  <si>
     <t>FF3/D11</t>
   </si>
   <si>
@@ -305,12 +443,18 @@
     <t>1.1.3.2</t>
   </si>
   <si>
+    <t>Средства, полученные от центра развития избирательных систем, реформ и учений</t>
+  </si>
+  <si>
     <t>FF3/D18</t>
   </si>
   <si>
     <t>1.1.4</t>
   </si>
   <si>
+    <t>Средства, полученные от вспомогательной деятельности</t>
+  </si>
+  <si>
     <t>FF3/D19</t>
   </si>
   <si>
@@ -323,12 +467,18 @@
     <t>1.1.4.2</t>
   </si>
   <si>
+    <t>Доходы полученные от лекций выставок и других подобных мероприятий</t>
+  </si>
+  <si>
     <t>FF3/D21</t>
   </si>
   <si>
     <t>1.1.4.3</t>
   </si>
   <si>
+    <t>Суммы полученные от издательской и других видов деятельности</t>
+  </si>
+  <si>
     <t>FF3/D22</t>
   </si>
   <si>
@@ -350,6 +500,9 @@
     <t>FF3/D25</t>
   </si>
   <si>
+    <t>Безналичные доходы</t>
+  </si>
+  <si>
     <t>FF3/D26</t>
   </si>
   <si>
@@ -380,6 +533,9 @@
     <t>1.2.2</t>
   </si>
   <si>
+    <t>Другие безналичные доходы</t>
+  </si>
+  <si>
     <t>Expenses</t>
   </si>
   <si>
@@ -392,6 +548,12 @@
     <t>expenses</t>
   </si>
   <si>
+    <t>ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы</t>
+  </si>
+  <si>
     <t>Salaries and Bonuses</t>
   </si>
   <si>
@@ -401,24 +563,48 @@
     <t>FF4.2</t>
   </si>
   <si>
+    <t>შრომის ანაზღაურება</t>
+  </si>
+  <si>
+    <t>Оплата труда</t>
+  </si>
+  <si>
     <t>Salaries</t>
   </si>
   <si>
     <t>FF4/D13&amp;FF5/D11</t>
   </si>
   <si>
+    <t>ხელფასები</t>
+  </si>
+  <si>
+    <t>Зарплаты</t>
+  </si>
+  <si>
     <t>Bonuses</t>
   </si>
   <si>
     <t>FF4/D14&amp;FF5/D12</t>
   </si>
   <si>
+    <t>პრემია</t>
+  </si>
+  <si>
+    <t>Премия</t>
+  </si>
+  <si>
     <t>Goods and Services</t>
   </si>
   <si>
     <t>FF4/D15&amp;FF5/D13</t>
   </si>
   <si>
+    <t>საქონელი და მომსახურება</t>
+  </si>
+  <si>
+    <t>Товары и услуги</t>
+  </si>
+  <si>
     <t>Business trips</t>
   </si>
   <si>
@@ -428,24 +614,48 @@
     <t>1.2.1,1.2.1,6.2,1.3</t>
   </si>
   <si>
+    <t>მივლინებები</t>
+  </si>
+  <si>
+    <t>Командировки</t>
+  </si>
+  <si>
     <t>Domestic business trips</t>
   </si>
   <si>
     <t>FF4/D17&amp;FF5/D15</t>
   </si>
   <si>
+    <t>მივლინებები ქვეყნის შიგნით</t>
+  </si>
+  <si>
+    <t>Внутренные командировки</t>
+  </si>
+  <si>
     <t>International business trips</t>
   </si>
   <si>
     <t>FF4/D18&amp;FF5/D16</t>
   </si>
   <si>
+    <t>მივლინებები ქვეყნის გარეთ</t>
+  </si>
+  <si>
+    <t>Заграничные командировки</t>
+  </si>
+  <si>
     <t>Office expenses</t>
   </si>
   <si>
     <t>FF4/D19&amp;FF5/D17</t>
   </si>
   <si>
+    <t>ოფისის ხარჯები</t>
+  </si>
+  <si>
+    <t>Офисные расходы</t>
+  </si>
+  <si>
     <t>Stationary and electronics</t>
   </si>
   <si>
@@ -455,6 +665,12 @@
     <t>1.2.2.1,1.2.2.1</t>
   </si>
   <si>
+    <t>საკანცელარიო საქონლის, საოფისე ტექნიკისა და ინვენტარის შეძენის, დამონტაჟების და მოვლა-შენახვის ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на канцелярские товары, офисную технику, техническое обслуживание, приобретение и установку оборудования, </t>
+  </si>
+  <si>
     <t>Office furniture</t>
   </si>
   <si>
@@ -464,6 +680,12 @@
     <t>1.2.2.2,1.2.2.2</t>
   </si>
   <si>
+    <t>საოფისე ავეჯი</t>
+  </si>
+  <si>
+    <t>Офисная мебель</t>
+  </si>
+  <si>
     <t>Repairs</t>
   </si>
   <si>
@@ -473,6 +695,12 @@
     <t>1.2.2.3,1.2.2.3</t>
   </si>
   <si>
+    <t>შენობა-ნაგებობების და მათი მიმდებარე ტერიტორიების მიმდინარე რემონტის ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на ремонт зданий и прилегающих к ним територий</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
@@ -482,6 +710,12 @@
     <t>1.2.2.4,1.2.2.4</t>
   </si>
   <si>
+    <t>კავშირგაბმულობის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на связь</t>
+  </si>
+  <si>
     <t>Postal services</t>
   </si>
   <si>
@@ -491,6 +725,12 @@
     <t>1.2.2.5,1.2.2.5</t>
   </si>
   <si>
+    <t>საფოსტო მომსახურების ხარჯი</t>
+  </si>
+  <si>
+    <t>Почтовые расходы</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
@@ -500,6 +740,12 @@
     <t>1.2.2.6,1.2.2.6</t>
   </si>
   <si>
+    <t>კომუნალური ხარჯი</t>
+  </si>
+  <si>
+    <t>Коммунальные расходы </t>
+  </si>
+  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -509,6 +755,12 @@
     <t>1.2.2.6.1,1.2.2.6.1</t>
   </si>
   <si>
+    <t>ელექტროენერგიის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на электричество</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
@@ -518,6 +770,12 @@
     <t>1.2.2.6.2,1.2.2.6.2</t>
   </si>
   <si>
+    <t>წყლის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расход воды</t>
+  </si>
+  <si>
     <t>Gas</t>
   </si>
   <si>
@@ -527,6 +785,12 @@
     <t>1.2.2.6.3,1.2.2.6.3</t>
   </si>
   <si>
+    <t>ბუნებრივი და თხევადი აირის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расход жидкого и природного газа</t>
+  </si>
+  <si>
     <t>Other utilities</t>
   </si>
   <si>
@@ -536,6 +800,12 @@
     <t>1.2.2.6.4,1.2.2.6.4</t>
   </si>
   <si>
+    <t>სხვა კომუნალური ხარჯი</t>
+  </si>
+  <si>
+    <t>Прочие коммунальные расходы </t>
+  </si>
+  <si>
     <t>Non-classified office expenses</t>
   </si>
   <si>
@@ -545,6 +815,12 @@
     <t>1.2.2.7,1.2.2.7</t>
   </si>
   <si>
+    <t>ოფისის ხარჯი რომელიც არ არის კლასიფიცირებული</t>
+  </si>
+  <si>
+    <t>Офисные расходы, которые не классифицируются</t>
+  </si>
+  <si>
     <t>Hospitality expenses</t>
   </si>
   <si>
@@ -554,6 +830,12 @@
     <t>1.2.3,1.2.3</t>
   </si>
   <si>
+    <t>წარმომადგენლობითი ხარჯები</t>
+  </si>
+  <si>
+    <t>Представительские расходы</t>
+  </si>
+  <si>
     <t>Food expenses</t>
   </si>
   <si>
@@ -563,6 +845,12 @@
     <t>1.2.4,1.2.4</t>
   </si>
   <si>
+    <t>კვების ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на питание</t>
+  </si>
+  <si>
     <t>Medical expenses</t>
   </si>
   <si>
@@ -572,6 +860,12 @@
     <t>1.2.5,1.2.5</t>
   </si>
   <si>
+    <t>სამედიცინო ხარჯები</t>
+  </si>
+  <si>
+    <t>Медицинские расходы</t>
+  </si>
+  <si>
     <t>Transport expenses</t>
   </si>
   <si>
@@ -581,6 +875,12 @@
     <t>1.2.6,1.2.6</t>
   </si>
   <si>
+    <t>ტრანსპორტისა და ტექნიკის ექსპლოატაციისა და მოვლა-შენახვის ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на эксплуатацию и оборудование транспорта и техники</t>
+  </si>
+  <si>
     <t>Fuel expenses</t>
   </si>
   <si>
@@ -590,6 +890,12 @@
     <t>1.2.6.1,1.2.6.1</t>
   </si>
   <si>
+    <t>საწვავ/საპოხი მასალების შეძენის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расход на топлива / смазки</t>
+  </si>
+  <si>
     <t>Repair expenses</t>
   </si>
   <si>
@@ -599,6 +905,12 @@
     <t>1.2.6.2,1.2.6.2</t>
   </si>
   <si>
+    <t>მიმდინარე რემონტის ხარჯი</t>
+  </si>
+  <si>
+    <t>Текущие затраты на ремонт</t>
+  </si>
+  <si>
     <t>Bank service expenses</t>
   </si>
   <si>
@@ -608,6 +920,12 @@
     <t>1.2.7,1.2.7</t>
   </si>
   <si>
+    <t>ბანკის მომსახურების ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на банковское обслуживание</t>
+  </si>
+  <si>
     <t>Advertisement</t>
   </si>
   <si>
@@ -617,6 +935,12 @@
     <t>1.2.8,1.2.8</t>
   </si>
   <si>
+    <t>რეკლამის ხარჯი</t>
+  </si>
+  <si>
+    <t>Рекламные расходы</t>
+  </si>
+  <si>
     <t>TV ads</t>
   </si>
   <si>
@@ -626,6 +950,12 @@
     <t>1.2.8.1,1.2.8.1</t>
   </si>
   <si>
+    <t>სატელევიზიო რეკლამის ხარჯები</t>
+  </si>
+  <si>
+    <t>Затраты на ТВ рекламу</t>
+  </si>
+  <si>
     <t>Print ads</t>
   </si>
   <si>
@@ -635,6 +965,12 @@
     <t>1.2.8.2,1.2.8.2</t>
   </si>
   <si>
+    <t>ბეჭდური რეკლამის ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на печатную рекламу</t>
+  </si>
+  <si>
     <t>Online ads</t>
   </si>
   <si>
@@ -644,6 +980,12 @@
     <t>1.2.8.3,1.2.8.3</t>
   </si>
   <si>
+    <t>ინტერნეტ-რეკლამის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на интернет рекламу</t>
+  </si>
+  <si>
     <t>Swag</t>
   </si>
   <si>
@@ -653,6 +995,12 @@
     <t>1.2.8.4,1.2.8.4</t>
   </si>
   <si>
+    <t>ბრენდირებული აქსესუარებით რეკლამის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на рекламу Фирменными аксессуарами</t>
+  </si>
+  <si>
     <t>Other ads</t>
   </si>
   <si>
@@ -662,6 +1010,12 @@
     <t>1.2.8.5,1.2.8.5</t>
   </si>
   <si>
+    <t>სხვა სარეკლამო ხარჯები</t>
+  </si>
+  <si>
+    <t>Другие расходы на рекламу</t>
+  </si>
+  <si>
     <t>Educational events</t>
   </si>
   <si>
@@ -671,6 +1025,12 @@
     <t>1.2.9,1.2.9</t>
   </si>
   <si>
+    <t>სესიების, კონფერენციების, ყრილობების, სემინარების და სხვა სამუშაო შეხვედრების მოწყობის ხარჯები</t>
+  </si>
+  <si>
+    <t>расходы на сессии, конференции, конгрессы, семинары и другие деловые встречи</t>
+  </si>
+  <si>
     <t>Consultancy and tranlsation expenses</t>
   </si>
   <si>
@@ -680,6 +1040,12 @@
     <t>1.2.10,1.2.10</t>
   </si>
   <si>
+    <t>საკონსულტაციო, სანოტარო, თარჯიმნის და თარგმნის მომსახურების</t>
+  </si>
+  <si>
+    <t>Консультативный, нотариус, переводчик и услуги переводчика</t>
+  </si>
+  <si>
     <t>Audit service expenses</t>
   </si>
   <si>
@@ -689,6 +1055,12 @@
     <t>1.2.11,1.2.11</t>
   </si>
   <si>
+    <t>აუდიტორიული მომსახურების ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на аудиторские услуги</t>
+  </si>
+  <si>
     <t>Buildings Security expenses</t>
   </si>
   <si>
@@ -698,6 +1070,12 @@
     <t>1.2.12,1.2.12</t>
   </si>
   <si>
+    <t>შენობა-ნაგებობების დაცვის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на охрану зданий</t>
+  </si>
+  <si>
     <t>Operating lease expenses</t>
   </si>
   <si>
@@ -707,6 +1085,12 @@
     <t>1.2.13,1.2.13</t>
   </si>
   <si>
+    <t>იჯარის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы по аренде</t>
+  </si>
+  <si>
     <t>Real estate leasing</t>
   </si>
   <si>
@@ -719,6 +1103,12 @@
     <t>FF9.4</t>
   </si>
   <si>
+    <t>უძრავი ქონების იჯარის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы по аренде недвижимости</t>
+  </si>
+  <si>
     <t>Vehicles leasing</t>
   </si>
   <si>
@@ -731,6 +1121,12 @@
     <t>FF9.5</t>
   </si>
   <si>
+    <t>ავტოსატრანსპორტო საშუალებების იჯარის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы по аренде автотранспортных средств</t>
+  </si>
+  <si>
     <t>Other property leasing</t>
   </si>
   <si>
@@ -743,6 +1139,12 @@
     <t>FF9.6</t>
   </si>
   <si>
+    <t>სხვა მოძრავი ქონების იჯარის ხარჯი</t>
+  </si>
+  <si>
+    <t>Прочие расходы аренды движимого имущества</t>
+  </si>
+  <si>
     <t>Cultural events</t>
   </si>
   <si>
@@ -752,12 +1154,24 @@
     <t>1.2.14,1.2.14</t>
   </si>
   <si>
+    <t>კულტურული, სპორტული, საგანმანათლებლო და საგამოფენო ღონისძიებები</t>
+  </si>
+  <si>
+    <t>Культурные, спортивные, образовательные и выставочные мероприятия</t>
+  </si>
+  <si>
     <t>FF4/D53&amp;FF5/D51</t>
   </si>
   <si>
     <t>1.2.15,1.2.15</t>
   </si>
   <si>
+    <t>სხვა დანარჩენი საქონელი და მომსახურება</t>
+  </si>
+  <si>
+    <t>Другие товары и услуги</t>
+  </si>
+  <si>
     <t>Gifts for individuals</t>
   </si>
   <si>
@@ -770,6 +1184,12 @@
     <t>FF4.3</t>
   </si>
   <si>
+    <t>პირებისათვის მატერიალური და არამატერიალური ფასეულობების გადაცემა</t>
+  </si>
+  <si>
+    <t>Передача материальных и нематериальных ценностей</t>
+  </si>
+  <si>
     <t>Low value gifts</t>
   </si>
   <si>
@@ -779,6 +1199,12 @@
     <t>1.3.1,1.3.1</t>
   </si>
   <si>
+    <t>მცირე ღირებულების აქსესუარები (მაისურები, კეპები, ქუდები, დროშები და ა.შ.)</t>
+  </si>
+  <si>
+    <t>Небольшое количество аксессуаров (футболки, кепки, шапки, флаги и т.д.)</t>
+  </si>
+  <si>
     <t>Other gifts</t>
   </si>
   <si>
@@ -788,6 +1214,12 @@
     <t>1.3.2,1.3.2</t>
   </si>
   <si>
+    <t>სხვა ფასეულობები</t>
+  </si>
+  <si>
+    <t>Другие ценности</t>
+  </si>
+  <si>
     <t>Expenses for additional actitivies</t>
   </si>
   <si>
@@ -797,6 +1229,12 @@
     <t>1.4,1.4</t>
   </si>
   <si>
+    <t>დამხმარე ხასიათის საქმიანობისათვის გაწეული ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на Вспомогательные виды деятельности </t>
+  </si>
+  <si>
     <t>Social Security</t>
   </si>
   <si>
@@ -806,6 +1244,12 @@
     <t>1.5,1.5</t>
   </si>
   <si>
+    <t>სოციალური უზრუნველყოფა</t>
+  </si>
+  <si>
+    <t>Социальное обеспечение</t>
+  </si>
+  <si>
     <t>Other expenses</t>
   </si>
   <si>
@@ -815,6 +1259,12 @@
     <t>1.6,1.6</t>
   </si>
   <si>
+    <t>სხვა ხარჯები</t>
+  </si>
+  <si>
+    <t>Прочие расходы</t>
+  </si>
+  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -824,6 +1274,12 @@
     <t>1.6.1,1.6.1</t>
   </si>
   <si>
+    <t>დაზღვევის ხარჯი</t>
+  </si>
+  <si>
+    <t>Расходы на страхование</t>
+  </si>
+  <si>
     <t>Taxes (excluding VAT and income tax)</t>
   </si>
   <si>
@@ -833,6 +1289,12 @@
     <t>1.6.2,1.6.2</t>
   </si>
   <si>
+    <t>გადასახადები (გარდა საშემოსავლო და საქონლის ღირებულებაში აღრიცხული დღგ-ის)</t>
+  </si>
+  <si>
+    <t>Налоги (кроме налога на доход и стоимости указанных товаров учитывая НДС)</t>
+  </si>
+  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -842,12 +1304,21 @@
     <t>1.6.3,1.6.3</t>
   </si>
   <si>
+    <t>მოსაკრებლები</t>
+  </si>
+  <si>
+    <t>СБОРЫ</t>
+  </si>
+  <si>
     <t>FF4/D63&amp;FF5/D61</t>
   </si>
   <si>
     <t>1.6.4,1.6.4</t>
   </si>
   <si>
+    <t>სხვადასხვა ხარჯები</t>
+  </si>
+  <si>
     <t>Loss due to exchange rate differences</t>
   </si>
   <si>
@@ -857,6 +1328,12 @@
     <t>1.6.5,1.6.5</t>
   </si>
   <si>
+    <t>ზარალი კურსთაშორისი სხვაობებიდან</t>
+  </si>
+  <si>
+    <t>Убытки от курсовых разниц</t>
+  </si>
+  <si>
     <t>Purchasing non-financial assets</t>
   </si>
   <si>
@@ -866,6 +1343,12 @@
     <t>2,2</t>
   </si>
   <si>
+    <t>არაფინანსური აქტივების ზრდა</t>
+  </si>
+  <si>
+    <t>Увеличение нефинансовых активов</t>
+  </si>
+  <si>
     <t>Buildings</t>
   </si>
   <si>
@@ -875,12 +1358,24 @@
     <t>2.1,2.1</t>
   </si>
   <si>
+    <t>შენობა-ნაგებობები</t>
+  </si>
+  <si>
+    <t>Здания</t>
+  </si>
+  <si>
     <t>Ongoing constructions</t>
   </si>
   <si>
     <t>FF4/D67</t>
   </si>
   <si>
+    <t>დაუმთავრებელი მშენებლობა</t>
+  </si>
+  <si>
+    <t>Незавершенные строительства</t>
+  </si>
+  <si>
     <t>Land</t>
   </si>
   <si>
@@ -890,6 +1385,12 @@
     <t>2.3,2.2</t>
   </si>
   <si>
+    <t>მიწა</t>
+  </si>
+  <si>
+    <t>Земля</t>
+  </si>
+  <si>
     <t>Vechicles</t>
   </si>
   <si>
@@ -899,6 +1400,12 @@
     <t>2.4,2.3</t>
   </si>
   <si>
+    <t>სატრანსპორტო საშუალებები</t>
+  </si>
+  <si>
+    <t>Транспортные средства</t>
+  </si>
+  <si>
     <t>Other machinery</t>
   </si>
   <si>
@@ -908,6 +1415,12 @@
     <t>2.5,2.4</t>
   </si>
   <si>
+    <t>სხვა მანქანა დანადგარები და ინვენტარი</t>
+  </si>
+  <si>
+    <t>Другие машины и оборудование</t>
+  </si>
+  <si>
     <t>Other main assets</t>
   </si>
   <si>
@@ -917,6 +1430,12 @@
     <t>2.6,2.5</t>
   </si>
   <si>
+    <t>სხვა ძირითადი აქტივები</t>
+  </si>
+  <si>
+    <t>Другие основные активы</t>
+  </si>
+  <si>
     <t>Other material supplies</t>
   </si>
   <si>
@@ -926,6 +1445,12 @@
     <t>2.7,2.6</t>
   </si>
   <si>
+    <t>სხვა მატერიალური მარაგები</t>
+  </si>
+  <si>
+    <t>Другие материальные запасы</t>
+  </si>
+  <si>
     <t>Increasing other financial assets</t>
   </si>
   <si>
@@ -935,6 +1460,12 @@
     <t>3,3</t>
   </si>
   <si>
+    <t>სხვა ფინანსური აქტივების ზრდა</t>
+  </si>
+  <si>
+    <t>Увеличение других финансовых активов</t>
+  </si>
+  <si>
     <t>Decreasing obligations</t>
   </si>
   <si>
@@ -944,6 +1475,12 @@
     <t>4,4</t>
   </si>
   <si>
+    <t>ვალდებულებების კლება</t>
+  </si>
+  <si>
+    <t>Сокращение обязательств</t>
+  </si>
+  <si>
     <t>Paying commercial bank loans</t>
   </si>
   <si>
@@ -953,6 +1490,12 @@
     <t>4.1,4.1</t>
   </si>
   <si>
+    <t>კომერციული ბანკებიდან მიღებული სესხების დაფარვა</t>
+  </si>
+  <si>
+    <t>Погашение кредитов коммерческих банков</t>
+  </si>
+  <si>
     <t>Paying other loans</t>
   </si>
   <si>
@@ -962,6 +1505,12 @@
     <t>4.2,4.2</t>
   </si>
   <si>
+    <t>სხვა სესხების დაფარვა</t>
+  </si>
+  <si>
+    <t>Погашение других долгов</t>
+  </si>
+  <si>
     <t>Main capital consumption</t>
   </si>
   <si>
@@ -971,6 +1520,12 @@
     <t>5,5</t>
   </si>
   <si>
+    <t>ძირითადი კაპიტალის მოხმარება</t>
+  </si>
+  <si>
+    <t>Потребление основного капитала</t>
+  </si>
+  <si>
     <t>Campaign expenses</t>
   </si>
   <si>
@@ -980,6 +1535,12 @@
     <t>expenses_campaign</t>
   </si>
   <si>
+    <t>საარჩევნო კამპანიის ფონდის ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы фонда избирательной кампаний</t>
+  </si>
+  <si>
     <t>FF5/D10</t>
   </si>
   <si>
@@ -1013,6 +1574,9 @@
     <t>1.2.2.1</t>
   </si>
   <si>
+    <t>Расходы на канцелярские товары, офисную техникуб техническое обслуживаниеб приобретение и установку оборудования, </t>
+  </si>
+  <si>
     <t>FF5/D19</t>
   </si>
   <si>
@@ -1121,6 +1685,9 @@
     <t>1.2.8</t>
   </si>
   <si>
+    <t>რეკლამის ხარჯები</t>
+  </si>
+  <si>
     <t>FF5/D37</t>
   </si>
   <si>
@@ -1181,6 +1748,9 @@
     <t>1.2.13</t>
   </si>
   <si>
+    <t>საიჯარო ქირის ხარჯი</t>
+  </si>
+  <si>
     <t>FF5/D47</t>
   </si>
   <si>
@@ -1247,6 +1817,9 @@
     <t>1.6.2</t>
   </si>
   <si>
+    <t>Налоги (кроме налога на прибыль и стоимости указанных товаров учитывается НДС)</t>
+  </si>
+  <si>
     <t>FF5/D60</t>
   </si>
   <si>
@@ -1268,6 +1841,12 @@
     <t>FF5/D63</t>
   </si>
   <si>
+    <t>არაფინანსური აქტივების შეძენისათვის გადახდილი თანხები</t>
+  </si>
+  <si>
+    <t>выплаченные суммы для нефинансовых активов</t>
+  </si>
+  <si>
     <t>FF5/D64</t>
   </si>
   <si>
@@ -1280,6 +1859,9 @@
     <t>FF5/D67</t>
   </si>
   <si>
+    <t>სხვა მანქანა დანადგარები და მოწყობილობები</t>
+  </si>
+  <si>
     <t>FF5/D68</t>
   </si>
   <si>
@@ -1307,33 +1889,69 @@
     <t>FF5/D75</t>
   </si>
   <si>
+    <t>სსიპ "საარჩევნო სისტემების განვითარების, რეფორმებისა და სწავლების ცენტრიდან" მიღებული სახსრებით გაწეული ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы из средств полученных от "учебного центра развития избирательных систем и реформ"</t>
+  </si>
+  <si>
     <t>Research</t>
   </si>
   <si>
     <t>FF5/D76</t>
   </si>
   <si>
+    <t>კვლევების ხარჯები</t>
+  </si>
+  <si>
+    <t>Затраты на исследования</t>
+  </si>
+  <si>
     <t>FF5/D77</t>
   </si>
   <si>
+    <t>მივლინების ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на командировки</t>
+  </si>
+  <si>
     <t>Teaching</t>
   </si>
   <si>
     <t>FF5/D78</t>
   </si>
   <si>
+    <t>სწავლების ხარჯები</t>
+  </si>
+  <si>
+    <t>Расходы на обучение</t>
+  </si>
+  <si>
     <t>Regional projects funding</t>
   </si>
   <si>
     <t>FF5/D79</t>
   </si>
   <si>
+    <t>რეგიონალური პროექტების დაფინანსების ხარჯები</t>
+  </si>
+  <si>
+    <t>Затраты на финансирование региональных проектов</t>
+  </si>
+  <si>
     <t>Conferences</t>
   </si>
   <si>
     <t>FF5/D80</t>
   </si>
   <si>
+    <t>კონფერენციების ხარჯები</t>
+  </si>
+  <si>
+    <t>Затраты на конференции</t>
+  </si>
+  <si>
     <t>FF5/D81</t>
   </si>
   <si>
@@ -1349,39 +1967,87 @@
     <t>FF6/D11</t>
   </si>
   <si>
+    <t>Исследовательские затраты</t>
+  </si>
+  <si>
     <t>Inside the country</t>
   </si>
   <si>
     <t>FF6/D12</t>
   </si>
   <si>
+    <t>კვლევების ხარჯები ქვეყნის შიგნით</t>
+  </si>
+  <si>
+    <t>Исследовательские затраты внутри страны</t>
+  </si>
+  <si>
     <t>Outside the country</t>
   </si>
   <si>
     <t>FF6/D13</t>
   </si>
   <si>
+    <t>კვლევების ხარჯები ქვეყნის გარეთ</t>
+  </si>
+  <si>
+    <t>Исследовательские затраты заграницей</t>
+  </si>
+  <si>
     <t>FF6/D14</t>
   </si>
   <si>
+    <t>расходы на обучение</t>
+  </si>
+  <si>
     <t>FF6/D15</t>
   </si>
   <si>
+    <t>სწავლების ხარჯები ქვეყნის შიგნით</t>
+  </si>
+  <si>
+    <t>расходы на обучение внутри страны</t>
+  </si>
+  <si>
     <t>FF6/D16</t>
   </si>
   <si>
+    <t>სწავლების ხარჯები ქვეყნის გარეთ</t>
+  </si>
+  <si>
+    <t>расходы на обучение заграницей</t>
+  </si>
+  <si>
     <t>FF6/D17</t>
   </si>
   <si>
     <t>FF6/D18</t>
   </si>
   <si>
+    <t>მივლინების ხარჯები ქვეყნის შიგნით</t>
+  </si>
+  <si>
+    <t>Расходы на командировки внутри страны</t>
+  </si>
+  <si>
     <t>FF6/D19</t>
   </si>
   <si>
+    <t>მივლინების ხარჯები ქვეყნის გარეთ</t>
+  </si>
+  <si>
+    <t>Расходы на командировки заграницей</t>
+  </si>
+  <si>
     <t>FF6/D20</t>
   </si>
   <si>
+    <t>რეგიონული პროექტების დაფინანსება</t>
+  </si>
+  <si>
+    <t>Финансирование региональных проектов</t>
+  </si>
+  <si>
     <t>FF6/D21</t>
   </si>
   <si>
@@ -1400,6 +2066,12 @@
     <t>financial_assets</t>
   </si>
   <si>
+    <t>ფინანსური აქტივები</t>
+  </si>
+  <si>
+    <t>финансовые активы</t>
+  </si>
+  <si>
     <t>Cash in hand in Georgian Lari</t>
   </si>
   <si>
@@ -1409,12 +2081,24 @@
     <t>FF8.1</t>
   </si>
   <si>
+    <t>ნაღდი ფული სალაროში ეროვნულ ვალუტაში</t>
+  </si>
+  <si>
+    <t>Наличные в местной валюте</t>
+  </si>
+  <si>
     <t>Cash in hand in foreigh currency</t>
   </si>
   <si>
     <t>FF7/D13</t>
   </si>
   <si>
+    <t>ნაღდი ფული სალაროში უცხოურ ვალუტაში</t>
+  </si>
+  <si>
+    <t>Наличные в иностранной валюте</t>
+  </si>
+  <si>
     <t>Current bank account</t>
   </si>
   <si>
@@ -1424,114 +2108,228 @@
     <t>FF8</t>
   </si>
   <si>
+    <t>საანგარიშსწორებო (მიმდინარე) ანგარიში ბანკში</t>
+  </si>
+  <si>
+    <t>Расчетный (текущий) счет в банке</t>
+  </si>
+  <si>
     <t>Foreign currency bank account</t>
   </si>
   <si>
     <t>FF7/D15</t>
   </si>
   <si>
+    <t>სავალუტო ანგარიში ბანკში</t>
+  </si>
+  <si>
+    <t>Валютный счет в банке</t>
+  </si>
+  <si>
     <t>Deposits in Georgian Lari</t>
   </si>
   <si>
     <t>FF7/D16</t>
   </si>
   <si>
+    <t>დეპოზიტები ბანკში ეროვნულ ვალუტაში</t>
+  </si>
+  <si>
+    <t>Банковские депозиты в национальной валюте</t>
+  </si>
+  <si>
     <t>Deposits in foreign currency</t>
   </si>
   <si>
     <t>FF7/D17</t>
   </si>
   <si>
+    <t>დეპოზიტები ბანკში უცხოურ ვალუტაში</t>
+  </si>
+  <si>
+    <t>Банковские депозиты в иностранной валюте</t>
+  </si>
+  <si>
     <t>Other accounts in bank</t>
   </si>
   <si>
     <t>FF7/D18</t>
   </si>
   <si>
+    <t>სხვა ანგარიშები ბანკში</t>
+  </si>
+  <si>
+    <t>Другие счета в банке</t>
+  </si>
+  <si>
     <t>Other financial assets</t>
   </si>
   <si>
     <t>FF7/D19</t>
   </si>
   <si>
+    <t>სხვა ფინანსური აქტივები</t>
+  </si>
+  <si>
+    <t>Прочие финансовые активы</t>
+  </si>
+  <si>
     <t>Receivables from supply and service</t>
   </si>
   <si>
     <t>FF7/D20</t>
   </si>
   <si>
+    <t>მოთხოვნები მიწოდებიდან და მომსახურებიდან</t>
+  </si>
+  <si>
+    <t>Требования с доставки и обслуживания</t>
+  </si>
+  <si>
     <t>Receivables from business trips</t>
   </si>
   <si>
     <t>FF7/D21</t>
   </si>
   <si>
+    <t>მოთხოვნები მივლინებით</t>
+  </si>
+  <si>
+    <t>Требования с коммандировки</t>
+  </si>
+  <si>
     <t>Receivables from deficits</t>
   </si>
   <si>
     <t>FF7/D22</t>
   </si>
   <si>
+    <t>მოთხოვნები დანაკლისებით</t>
+  </si>
+  <si>
+    <t>Требования с дефицита</t>
+  </si>
+  <si>
     <t>Other receivables from individuals</t>
   </si>
   <si>
     <t>FF7/D23</t>
   </si>
   <si>
+    <t>ანგარიშვალდებული პირების მიმართ სხვა მოთხოვნები</t>
+  </si>
+  <si>
+    <t>Другие требования к ответственным лицам</t>
+  </si>
+  <si>
     <t>Paid VAT</t>
   </si>
   <si>
     <t>FF7/D24</t>
   </si>
   <si>
+    <t>გადახდილი დღგ</t>
+  </si>
+  <si>
+    <t>Оплаченный НДС</t>
+  </si>
+  <si>
     <t>Prepaid profit tax</t>
   </si>
   <si>
     <t>FF7/D25</t>
   </si>
   <si>
+    <t>წინასწარ გადახდილი მოგების გადასახადი</t>
+  </si>
+  <si>
+    <t>Предплаченный налог на прибыль</t>
+  </si>
+  <si>
     <t>Other tax assets</t>
   </si>
   <si>
     <t>FF7/D26</t>
   </si>
   <si>
+    <t>სხვა საგადასახადო აქტივი</t>
+  </si>
+  <si>
+    <t>Другой налоговый актив</t>
+  </si>
+  <si>
     <t>Prepaid rent</t>
   </si>
   <si>
     <t>FF7/D27</t>
   </si>
   <si>
+    <t>წინასწარ გადახდილი საიჯარო ქირა</t>
+  </si>
+  <si>
+    <t>Предоплаченная аренда</t>
+  </si>
+  <si>
     <t>Other prepaid receivables</t>
   </si>
   <si>
     <t>FF7/D28</t>
   </si>
   <si>
+    <t>მოთხოვნები სხვა წინასწარი გადახდებით</t>
+  </si>
+  <si>
+    <t>Другие требования к авансовым платежам</t>
+  </si>
+  <si>
     <t>Receivable interest rates</t>
   </si>
   <si>
     <t>FF7/D29</t>
   </si>
   <si>
+    <t>მისაღები პროცენტები</t>
+  </si>
+  <si>
+    <t>Принимаемые проценты</t>
+  </si>
+  <si>
     <t>Receivable dividends</t>
   </si>
   <si>
     <t>FF7/D30</t>
   </si>
   <si>
+    <t>მისაღები დივიდენდები</t>
+  </si>
+  <si>
+    <t>Принимаемые дивиденды</t>
+  </si>
+  <si>
     <t>Receivable membership fees and one-off fees</t>
   </si>
   <si>
     <t>FF7/D31</t>
   </si>
   <si>
+    <t>მისაღები საწევროები და ერთჯერადი შენატანები</t>
+  </si>
+  <si>
+    <t>Принимаемые разовые платежи и платы на членства</t>
+  </si>
+  <si>
     <t>Other receivables</t>
   </si>
   <si>
     <t>FF7/D32</t>
   </si>
   <si>
+    <t>სხვა დანარჩენი დებიტორული დავალიანებები</t>
+  </si>
+  <si>
+    <t>Прочая дебиторская задолженность</t>
+  </si>
+  <si>
     <t>Property Assets</t>
   </si>
   <si>
@@ -1544,6 +2342,12 @@
     <t>property_assets</t>
   </si>
   <si>
+    <t>არაფინანსური აქტივები</t>
+  </si>
+  <si>
+    <t>Нефинансовые активы</t>
+  </si>
+  <si>
     <t>FF7/D35</t>
   </si>
   <si>
@@ -1559,6 +2363,12 @@
     <t>FF9.2</t>
   </si>
   <si>
+    <t>მანქანა-დანადგარები და ინვენტარი</t>
+  </si>
+  <si>
+    <t>Машины и оборудование</t>
+  </si>
+  <si>
     <t>FF7/D37</t>
   </si>
   <si>
@@ -1571,21 +2381,39 @@
     <t>FF7/D39</t>
   </si>
   <si>
+    <t>სხვა დანარჩენი ძირითადი აქტივები</t>
+  </si>
+  <si>
     <t>FF7/D40</t>
   </si>
   <si>
+    <t>Другие материяльные запасы</t>
+  </si>
+  <si>
     <t>Valuables</t>
   </si>
   <si>
     <t>FF7/D41</t>
   </si>
   <si>
+    <t>ფასეულობები</t>
+  </si>
+  <si>
+    <t>Ценности</t>
+  </si>
+  <si>
     <t>Non-produced assets</t>
   </si>
   <si>
     <t>FF7/D42</t>
   </si>
   <si>
+    <t>არაწარმოებული აქტივები</t>
+  </si>
+  <si>
+    <t>Непроизводные активы</t>
+  </si>
+  <si>
     <t>Debts</t>
   </si>
   <si>
@@ -1598,6 +2426,12 @@
     <t>debts</t>
   </si>
   <si>
+    <t>ვალდებულებები და კაპიტალი</t>
+  </si>
+  <si>
+    <t>Обязательства и капитал</t>
+  </si>
+  <si>
     <t>Capital and other financial obligations</t>
   </si>
   <si>
@@ -1607,121 +2441,247 @@
     <t>FF9.7.1</t>
   </si>
   <si>
+    <t>ფინანსური ვალდებულებები და სხვა კრედიტორული დავალიანებები</t>
+  </si>
+  <si>
+    <t>Финансовые обязательства и прочая кредиторская задолженность</t>
+  </si>
+  <si>
     <t>Financial obligations</t>
   </si>
   <si>
     <t>FF7/D46</t>
   </si>
   <si>
+    <t>ფინანსური ვალდებულებები</t>
+  </si>
+  <si>
+    <t>Финансовые обязательства </t>
+  </si>
+  <si>
     <t>Obligations from supply and service</t>
   </si>
   <si>
     <t>FF7/D47</t>
   </si>
   <si>
+    <t>ვალდებულებები მოწოდებიდან და მომსახურებიდან</t>
+  </si>
+  <si>
+    <t>Обязательства из поставок и услуг</t>
+  </si>
+  <si>
     <t>Profit Tax</t>
   </si>
   <si>
     <t>FF7/D48</t>
   </si>
   <si>
+    <t>გადასახდელი მოგების გადასახადი</t>
+  </si>
+  <si>
+    <t>Налог на прибыль подлежащий уплате</t>
+  </si>
+  <si>
     <t>Income Tax</t>
   </si>
   <si>
     <t>FF7/D49</t>
   </si>
   <si>
+    <t>გადასახდელი საშემოსავლო გადასახადი</t>
+  </si>
+  <si>
+    <t>Налог на доход подлежащий уплате</t>
+  </si>
+  <si>
     <t>VAT</t>
   </si>
   <si>
     <t>FF7/D50</t>
   </si>
   <si>
+    <t>გადასახდელი დღგ</t>
+  </si>
+  <si>
+    <t>НДС, подлежащий уплате</t>
+  </si>
+  <si>
     <t>Other budget obligations</t>
   </si>
   <si>
     <t>FF7/D51</t>
   </si>
   <si>
+    <t>ბიუჯეტის წინაშე სხვა ვალდებულებები</t>
+  </si>
+  <si>
+    <t>Прочие обязательства перед бюджетом</t>
+  </si>
+  <si>
     <t>Staff salaries</t>
   </si>
   <si>
     <t>FF7/D52</t>
   </si>
   <si>
+    <t>გადასახდელი ხელფასები შტატით მომუშავეთათვის</t>
+  </si>
+  <si>
+    <t>Заработная плата штатных работников</t>
+  </si>
+  <si>
     <t>Contracted employee salaries</t>
   </si>
   <si>
     <t>FF7/D53</t>
   </si>
   <si>
+    <t>გადასახდელი ხელფასები შტატგარეშე მომუშავეთათვის</t>
+  </si>
+  <si>
+    <t>Заработная плата внештатных работников</t>
+  </si>
+  <si>
     <t>FF7/D54</t>
   </si>
   <si>
+    <t>ვალდებულებები მივლინებით</t>
+  </si>
+  <si>
+    <t>Обязательство по командировкам</t>
+  </si>
+  <si>
     <t>Social security obligations</t>
   </si>
   <si>
     <t>FF7/D55</t>
   </si>
   <si>
+    <t>დამქირავებლის მიერ ფულადი და სასაქონლო ფორმით გაწეული სოციალური დახმარებით ვალდებულებები</t>
+  </si>
+  <si>
+    <t>Обязательства по социальной помощи</t>
+  </si>
+  <si>
     <t>Blocked amount by court or other administrative bodies</t>
   </si>
   <si>
     <t>FF7/D56</t>
   </si>
   <si>
+    <t>სასამართლოს ან/და ადმინისტრაციული ორგანოების გადაწყვეტილებების შესაბამისად დაკავებული თანხები ან სხვა დაკავებული თანხები</t>
+  </si>
+  <si>
+    <t>Суммы блокированные судом и / или административными органами</t>
+  </si>
+  <si>
     <t>Advanced recieved rent</t>
   </si>
   <si>
     <t>FF7/D57</t>
   </si>
   <si>
+    <t>წინასწარ მიღებული საიჯარო ქირა</t>
+  </si>
+  <si>
+    <t>Предварительно полученная аренда</t>
+  </si>
+  <si>
     <t>Other obligations by advanced received income</t>
   </si>
   <si>
     <t>FF7/D58</t>
   </si>
   <si>
+    <t>ვალდებულებები წინასწარ მიღებული სხვა შემოსავლებით</t>
+  </si>
+  <si>
+    <t>Обязательства авансовыми доходами</t>
+  </si>
+  <si>
     <t>Interest fees</t>
   </si>
   <si>
     <t>FF7/D59</t>
   </si>
   <si>
+    <t>გადასახდელი პროცენტები</t>
+  </si>
+  <si>
+    <t>Проценты подлежащие уплате</t>
+  </si>
+  <si>
     <t>Membership fees and one-off donations</t>
   </si>
   <si>
     <t>FF7/D60</t>
   </si>
   <si>
+    <t>გადასახდელი საწევროები და ერთჯერადი შენატანები</t>
+  </si>
+  <si>
+    <t>разовые платежи и платы на членство подлежащие уплате</t>
+  </si>
+  <si>
     <t>Other debts</t>
   </si>
   <si>
     <t>FF7/D61</t>
   </si>
   <si>
+    <t>სხვა დანარჩენი კრედიტორული დავალიანებები</t>
+  </si>
+  <si>
+    <t>Прочая кредиторская задолженность</t>
+  </si>
+  <si>
     <t>Capital</t>
   </si>
   <si>
     <t>FF7/D64</t>
   </si>
   <si>
+    <t>სულ კაპიტალი</t>
+  </si>
+  <si>
+    <t>Итого капитал</t>
+  </si>
+  <si>
     <t>Authorized capital</t>
   </si>
   <si>
     <t>FF7/D65</t>
   </si>
   <si>
+    <t>საწესდებო კაპიტალი</t>
+  </si>
+  <si>
+    <t>Уставной капитал</t>
+  </si>
+  <si>
     <t>Funds</t>
   </si>
   <si>
     <t>FF7/D66</t>
   </si>
   <si>
+    <t>ფონდები</t>
+  </si>
+  <si>
+    <t>Фонды</t>
+  </si>
+  <si>
     <t>Deficit</t>
   </si>
   <si>
     <t>FF7/D67</t>
+  </si>
+  <si>
+    <t>დაუფარავი დეფიციტი</t>
+  </si>
+  <si>
+    <t>Непокрытый дефицит</t>
   </si>
 </sst>
 </file>
@@ -1826,17 +2786,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L263"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="52.4642857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="80.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1898,423 +2863,555 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -2324,19 +3421,25 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>1.1</v>
@@ -2344,287 +3447,377 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>7</v>
       </c>
       <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="n">
         <v>9</v>
       </c>
       <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1.2</v>
@@ -2632,106 +3825,142 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="n">
         <v>99</v>
       </c>
       <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -2744,6 +3973,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -2755,120 +3986,158 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1" t="n">
         <v>11</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I50" s="2"/>
+      <c r="K50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
+      <c r="K51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
+      <c r="K52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2876,56 +4145,74 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I54" s="2"/>
+      <c r="K54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I55" s="2"/>
+      <c r="K55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2933,102 +4220,138 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
+      <c r="K57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
+      <c r="K58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
+      <c r="K59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
+      <c r="K60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
+      <c r="K61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
+      <c r="K62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -3036,16 +4359,22 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="1" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
+      <c r="K63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -3053,16 +4382,22 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
+      <c r="K64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -3070,16 +4405,22 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
+      <c r="K65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
@@ -3087,108 +4428,144 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="1" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
+      <c r="K66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
+      <c r="K67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3196,71 +4573,95 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
+      <c r="K72" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
+      <c r="K73" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3268,179 +4669,239 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
+      <c r="K76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
+      <c r="K77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
+      <c r="K78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
+      <c r="K79" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
+      <c r="K80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3448,520 +4909,694 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="I86" s="2"/>
+      <c r="K86" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1" t="s">
-        <v>235</v>
+        <v>365</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="I87" s="2"/>
+      <c r="K87" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="I88" s="2"/>
+      <c r="K88" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K90" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1" t="s">
-        <v>248</v>
+        <v>386</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>253</v>
+        <v>393</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
+      <c r="K92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>256</v>
+        <v>398</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
+      <c r="K93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>257</v>
+        <v>401</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>259</v>
+        <v>403</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>406</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1" t="s">
-        <v>261</v>
+        <v>407</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>262</v>
+        <v>408</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K95" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
+      <c r="K97" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1" t="s">
-        <v>270</v>
+        <v>422</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
+      <c r="K98" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1" t="s">
-        <v>273</v>
+        <v>427</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
+      <c r="K99" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1" t="s">
-        <v>275</v>
+        <v>431</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
+      <c r="K100" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1" t="s">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>279</v>
+        <v>436</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
+      <c r="K101" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="1" t="s">
-        <v>281</v>
+        <v>440</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>282</v>
+        <v>441</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="1" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
+      <c r="K103" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="1" t="s">
-        <v>287</v>
+        <v>450</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>2.2</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
+      <c r="K104" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
-        <v>288</v>
+        <v>453</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="1" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
+      <c r="K105" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="1" t="s">
-        <v>292</v>
+        <v>459</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
+      <c r="K106" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>294</v>
+        <v>463</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="1" t="s">
-        <v>295</v>
+        <v>464</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
+      <c r="K107" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="1" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
+      <c r="K108" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="1" t="s">
-        <v>301</v>
+        <v>474</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
+      <c r="K109" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
-        <v>304</v>
+        <v>479</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>305</v>
+        <v>480</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K110" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="1" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>309</v>
+        <v>488</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
-        <v>310</v>
+        <v>489</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>311</v>
+        <v>490</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
+      <c r="K112" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>313</v>
+        <v>494</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>314</v>
+        <v>495</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
+      <c r="K113" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3974,6 +5609,8 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
@@ -3985,17 +5622,19 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>318</v>
+        <v>503</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>1</v>
@@ -4005,19 +5644,25 @@
         <v>16</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>320</v>
+        <v>505</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
-        <v>321</v>
+        <v>508</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>1.1</v>
@@ -4025,76 +5670,106 @@
       <c r="H118" s="2"/>
       <c r="I118" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>322</v>
+        <v>509</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
+      <c r="K119" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
-        <v>323</v>
+        <v>510</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
+      <c r="K120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
-        <v>324</v>
+        <v>511</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
+      <c r="K121" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>325</v>
+        <v>512</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>326</v>
+        <v>513</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4102,52 +5777,70 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
-        <v>327</v>
+        <v>514</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
+      <c r="K123" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="1" t="s">
-        <v>328</v>
+        <v>515</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
+      <c r="K124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="1" t="s">
-        <v>329</v>
+        <v>516</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4155,102 +5848,138 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="1" t="s">
-        <v>330</v>
+        <v>517</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>331</v>
+        <v>518</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
+      <c r="K126" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>333</v>
+        <v>521</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
+      <c r="K127" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
-        <v>334</v>
+        <v>522</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>335</v>
+        <v>523</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
+      <c r="K128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>336</v>
+        <v>524</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>337</v>
+        <v>525</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
+      <c r="K129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>339</v>
+        <v>527</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
+      <c r="K130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
-        <v>340</v>
+        <v>528</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>341</v>
+        <v>529</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
+      <c r="K131" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
@@ -4258,16 +5987,22 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>342</v>
+        <v>530</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>343</v>
+        <v>531</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
+      <c r="K132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
@@ -4275,16 +6010,22 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>344</v>
+        <v>532</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>345</v>
+        <v>533</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
+      <c r="K133" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
@@ -4292,16 +6033,22 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>346</v>
+        <v>534</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>347</v>
+        <v>535</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
+      <c r="K134" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
@@ -4309,108 +6056,144 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>348</v>
+        <v>536</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>349</v>
+        <v>537</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
+      <c r="K135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
-        <v>350</v>
+        <v>538</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
+      <c r="K136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="1" t="s">
-        <v>352</v>
+        <v>540</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>353</v>
+        <v>541</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="1" t="s">
-        <v>354</v>
+        <v>542</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>355</v>
+        <v>543</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="1" t="s">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>357</v>
+        <v>545</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="1" t="s">
-        <v>358</v>
+        <v>546</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>359</v>
+        <v>547</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4418,71 +6201,95 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="1" t="s">
-        <v>360</v>
+        <v>548</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>361</v>
+        <v>549</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
+      <c r="K141" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="1" t="s">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
+      <c r="K142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="1" t="s">
-        <v>364</v>
+        <v>552</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>365</v>
+        <v>553</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="1" t="s">
-        <v>366</v>
+        <v>554</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>367</v>
+        <v>555</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4490,179 +6297,239 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="1" t="s">
-        <v>368</v>
+        <v>557</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>369</v>
+        <v>558</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
+      <c r="K145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="1" t="s">
-        <v>370</v>
+        <v>559</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>371</v>
+        <v>560</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
+      <c r="K146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="1" t="s">
-        <v>372</v>
+        <v>561</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>373</v>
+        <v>562</v>
       </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
+      <c r="K147" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="1" t="s">
-        <v>374</v>
+        <v>563</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>375</v>
+        <v>564</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
+      <c r="K148" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="1" t="s">
-        <v>376</v>
+        <v>565</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>377</v>
+        <v>566</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
+      <c r="K149" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="1" t="s">
-        <v>378</v>
+        <v>567</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>379</v>
+        <v>568</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="1" t="s">
-        <v>380</v>
+        <v>569</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>381</v>
+        <v>570</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="1" t="s">
-        <v>382</v>
+        <v>571</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>383</v>
+        <v>572</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="1" t="s">
-        <v>384</v>
+        <v>573</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>385</v>
+        <v>574</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="1" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>387</v>
+        <v>576</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4670,100 +6537,130 @@
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="1" t="s">
-        <v>388</v>
+        <v>578</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>389</v>
+        <v>579</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
+      <c r="K155" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1" t="s">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="1" t="s">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>391</v>
+        <v>581</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
+      <c r="K156" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="1" t="s">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
+      <c r="K157" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
-        <v>242</v>
+        <v>376</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="1" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>395</v>
+        <v>585</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="1" t="s">
-        <v>396</v>
+        <v>586</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>397</v>
+        <v>587</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K159" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="1" t="s">
-        <v>398</v>
+        <v>588</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>1.3</v>
@@ -4771,52 +6668,70 @@
       <c r="H160" s="2"/>
       <c r="I160" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="1" t="s">
-        <v>399</v>
+        <v>589</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
+      <c r="K161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="1" t="s">
-        <v>401</v>
+        <v>591</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>402</v>
+        <v>592</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
+      <c r="K162" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>257</v>
+        <v>401</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="1" t="s">
-        <v>403</v>
+        <v>593</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>1.4</v>
@@ -4825,17 +6740,23 @@
       <c r="I163" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K163" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
-        <v>260</v>
+        <v>406</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="1" t="s">
-        <v>404</v>
+        <v>594</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>1.5</v>
@@ -4844,17 +6765,23 @@
       <c r="I164" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K164" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="1" t="s">
-        <v>405</v>
+        <v>595</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>1.6</v>
@@ -4862,103 +6789,139 @@
       <c r="H165" s="2"/>
       <c r="I165" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="1" t="s">
-        <v>406</v>
+        <v>596</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>407</v>
+        <v>597</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
+      <c r="K166" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1" t="s">
-        <v>408</v>
+        <v>598</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>409</v>
+        <v>599</v>
       </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
+      <c r="K167" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1" t="s">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="1" t="s">
-        <v>410</v>
+        <v>601</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>411</v>
+        <v>602</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
+      <c r="K168" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="1" t="s">
-        <v>412</v>
+        <v>603</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>413</v>
+        <v>604</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
+      <c r="K169" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="1" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>415</v>
+        <v>606</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
+      <c r="K170" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="1" t="s">
-        <v>416</v>
+        <v>607</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>2</v>
@@ -4966,120 +6929,162 @@
       <c r="H171" s="2"/>
       <c r="I171" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="1" t="s">
-        <v>417</v>
+        <v>610</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>2.1</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
+      <c r="K172" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1" t="s">
-        <v>288</v>
+        <v>453</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="1" t="s">
-        <v>418</v>
+        <v>611</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>2.2</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
+      <c r="K173" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1" t="s">
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="1" t="s">
-        <v>419</v>
+        <v>612</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>2.3</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
+      <c r="K174" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1" t="s">
-        <v>294</v>
+        <v>463</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="1" t="s">
-        <v>420</v>
+        <v>613</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>2.4</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
+      <c r="K175" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="1" t="s">
-        <v>421</v>
+        <v>615</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>2.5</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
+      <c r="K176" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="1" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>2.6</v>
       </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
+      <c r="K177" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="1" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>3</v>
@@ -5088,17 +7093,23 @@
       <c r="I178" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K178" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="1" t="s">
-        <v>424</v>
+        <v>618</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>4</v>
@@ -5106,52 +7117,70 @@
       <c r="H179" s="2"/>
       <c r="I179" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1" t="s">
-        <v>309</v>
+        <v>488</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="1" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>4.1</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
+      <c r="K180" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="1" t="s">
-        <v>426</v>
+        <v>620</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>4.2</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
+      <c r="K181" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="1" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>5</v>
@@ -5160,17 +7189,21 @@
       <c r="I182" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K182" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>428</v>
+        <v>622</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="1" t="s">
-        <v>429</v>
+        <v>623</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>6</v>
@@ -5178,109 +7211,151 @@
       <c r="H183" s="2"/>
       <c r="I183" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1" t="s">
-        <v>430</v>
+        <v>626</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="1" t="s">
-        <v>431</v>
+        <v>627</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>6.1</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
+      <c r="K184" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="1" t="s">
-        <v>432</v>
+        <v>630</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>6.2</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
+      <c r="K185" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1" t="s">
-        <v>433</v>
+        <v>633</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="1" t="s">
-        <v>434</v>
+        <v>634</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>6.3</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
+      <c r="K186" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1" t="s">
-        <v>435</v>
+        <v>637</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="1" t="s">
-        <v>436</v>
+        <v>638</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>6.4</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
+      <c r="K187" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1" t="s">
-        <v>437</v>
+        <v>641</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="1" t="s">
-        <v>438</v>
+        <v>642</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>6.5</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
+      <c r="K188" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="1" t="s">
-        <v>439</v>
+        <v>645</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>6.6</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
+      <c r="K189" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
@@ -5292,6 +7367,8 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
@@ -5303,256 +7380,334 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>428</v>
+        <v>622</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="1" t="s">
-        <v>440</v>
+        <v>646</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="0" t="s">
-        <v>442</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>430</v>
+        <v>626</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="1" t="s">
-        <v>443</v>
+        <v>649</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I193" s="2"/>
+      <c r="K193" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="1" t="s">
-        <v>445</v>
+        <v>652</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I194" s="2"/>
+      <c r="K194" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1" t="s">
-        <v>446</v>
+        <v>655</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="1" t="s">
-        <v>447</v>
+        <v>656</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I195" s="2"/>
+      <c r="K195" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>433</v>
+        <v>633</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="1" t="s">
-        <v>448</v>
+        <v>659</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I196" s="2"/>
+      <c r="K196" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="1" t="s">
-        <v>449</v>
+        <v>661</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I197" s="2"/>
+      <c r="K197" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1" t="s">
-        <v>446</v>
+        <v>655</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="1" t="s">
-        <v>450</v>
+        <v>664</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I198" s="2"/>
+      <c r="K198" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="1" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>1.3</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I199" s="2"/>
+      <c r="K199" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="1" t="s">
-        <v>452</v>
+        <v>668</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I200" s="2"/>
+      <c r="K200" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1" t="s">
-        <v>446</v>
+        <v>655</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="1" t="s">
-        <v>453</v>
+        <v>671</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>402</v>
+        <v>592</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I201" s="2"/>
+      <c r="K201" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
-        <v>435</v>
+        <v>637</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="1" t="s">
-        <v>454</v>
+        <v>674</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>1.4</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I202" s="2"/>
+      <c r="K202" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>437</v>
+        <v>641</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="1" t="s">
-        <v>455</v>
+        <v>677</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I203" s="2"/>
+      <c r="K203" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="1" t="s">
-        <v>456</v>
+        <v>678</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>1.6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="I204" s="2"/>
+      <c r="K204" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
@@ -5564,6 +7719,8 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
@@ -5575,6 +7732,8 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
@@ -5583,22 +7742,24 @@
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="1" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="1" t="s">
-        <v>459</v>
+        <v>681</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
@@ -5606,40 +7767,52 @@
         <v>21</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>460</v>
+        <v>682</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>461</v>
+        <v>685</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="1" t="s">
-        <v>462</v>
+        <v>686</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>1110</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>463</v>
+        <v>687</v>
       </c>
       <c r="I209" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
-        <v>464</v>
+        <v>690</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="1" t="s">
-        <v>465</v>
+        <v>691</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>1120</v>
@@ -5648,122 +7821,158 @@
       <c r="I210" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="K210" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
-        <v>466</v>
+        <v>694</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="1" t="s">
-        <v>467</v>
+        <v>695</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>1211</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="I211" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
-        <v>469</v>
+        <v>699</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="1" t="s">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="I212" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
-        <v>471</v>
+        <v>703</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="1" t="s">
-        <v>472</v>
+        <v>704</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>1213</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="I213" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
-        <v>473</v>
+        <v>707</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="1" t="s">
-        <v>474</v>
+        <v>708</v>
       </c>
       <c r="G214" s="1" t="n">
         <v>1214</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="I214" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="1" t="s">
-        <v>475</v>
+        <v>711</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="1" t="s">
-        <v>476</v>
+        <v>712</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>1215</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="I215" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>477</v>
+        <v>715</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="1" t="s">
-        <v>478</v>
+        <v>716</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>1300</v>
@@ -5772,17 +7981,23 @@
       <c r="I216" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K216" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
-        <v>479</v>
+        <v>719</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="1" t="s">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>1410</v>
@@ -5791,17 +8006,23 @@
       <c r="I217" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K217" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
-        <v>481</v>
+        <v>723</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="1" t="s">
-        <v>482</v>
+        <v>724</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>1421</v>
@@ -5810,17 +8031,23 @@
       <c r="I218" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K218" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="1" t="s">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="1" t="s">
-        <v>484</v>
+        <v>728</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>1422</v>
@@ -5829,17 +8056,23 @@
       <c r="I219" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K219" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
-        <v>485</v>
+        <v>731</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="1" t="s">
-        <v>486</v>
+        <v>732</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>1423</v>
@@ -5848,17 +8081,23 @@
       <c r="I220" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K220" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="1" t="s">
-        <v>487</v>
+        <v>735</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="1" t="s">
-        <v>488</v>
+        <v>736</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>1431</v>
@@ -5867,17 +8106,23 @@
       <c r="I221" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K221" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
-        <v>489</v>
+        <v>739</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="1" t="s">
-        <v>490</v>
+        <v>740</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>1432</v>
@@ -5886,17 +8131,23 @@
       <c r="I222" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K222" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
-        <v>491</v>
+        <v>743</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="1" t="s">
-        <v>492</v>
+        <v>744</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>1433</v>
@@ -5905,17 +8156,23 @@
       <c r="I223" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K223" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>493</v>
+        <v>747</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="1" t="s">
-        <v>494</v>
+        <v>748</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>1441</v>
@@ -5924,17 +8181,23 @@
       <c r="I224" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K224" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>495</v>
+        <v>751</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="1" t="s">
-        <v>496</v>
+        <v>752</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>1442</v>
@@ -5943,17 +8206,23 @@
       <c r="I225" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K225" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
-        <v>497</v>
+        <v>755</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="1" t="s">
-        <v>498</v>
+        <v>756</v>
       </c>
       <c r="G226" s="1" t="n">
         <v>1443</v>
@@ -5962,17 +8231,23 @@
       <c r="I226" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K226" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
-        <v>499</v>
+        <v>759</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="1" t="s">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="G227" s="1" t="n">
         <v>1444</v>
@@ -5981,17 +8256,23 @@
       <c r="I227" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K227" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
-        <v>501</v>
+        <v>763</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="1" t="s">
-        <v>502</v>
+        <v>764</v>
       </c>
       <c r="G228" s="1" t="n">
         <v>1445</v>
@@ -6000,17 +8281,23 @@
       <c r="I228" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K228" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
-        <v>503</v>
+        <v>767</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="1" t="s">
-        <v>504</v>
+        <v>768</v>
       </c>
       <c r="G229" s="1" t="n">
         <v>1446</v>
@@ -6019,81 +8306,105 @@
       <c r="I229" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K229" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>505</v>
+        <v>771</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="1" t="s">
-        <v>506</v>
+        <v>772</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="1" t="s">
-        <v>507</v>
+        <v>773</v>
       </c>
       <c r="I230" s="1" t="n">
         <v>28</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>508</v>
+        <v>774</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="1" t="s">
-        <v>509</v>
+        <v>777</v>
       </c>
       <c r="G231" s="1" t="n">
         <v>2110</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>510</v>
+        <v>778</v>
       </c>
       <c r="I231" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
-        <v>511</v>
+        <v>779</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="1" t="s">
-        <v>512</v>
+        <v>780</v>
       </c>
       <c r="G232" s="1" t="n">
         <v>2120</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>513</v>
+        <v>781</v>
       </c>
       <c r="I232" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="1" t="s">
-        <v>514</v>
+        <v>784</v>
       </c>
       <c r="G233" s="1" t="n">
         <v>2130</v>
@@ -6102,17 +8413,23 @@
       <c r="I233" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K233" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="1" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="1" t="s">
-        <v>515</v>
+        <v>785</v>
       </c>
       <c r="G234" s="1" t="n">
         <v>2140</v>
@@ -6121,17 +8438,23 @@
       <c r="I234" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K234" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
-        <v>516</v>
+        <v>786</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="1" t="s">
-        <v>517</v>
+        <v>787</v>
       </c>
       <c r="G235" s="1" t="n">
         <v>2150</v>
@@ -6140,17 +8463,23 @@
       <c r="I235" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K235" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="1" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="1" t="s">
-        <v>518</v>
+        <v>789</v>
       </c>
       <c r="G236" s="1" t="n">
         <v>2220</v>
@@ -6159,17 +8488,23 @@
       <c r="I236" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K236" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="1" t="s">
-        <v>519</v>
+        <v>791</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="1" t="s">
-        <v>520</v>
+        <v>792</v>
       </c>
       <c r="G237" s="1" t="n">
         <v>2300</v>
@@ -6178,17 +8513,23 @@
       <c r="I237" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="K237" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
-        <v>521</v>
+        <v>795</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="1" t="s">
-        <v>522</v>
+        <v>796</v>
       </c>
       <c r="G238" s="1" t="n">
         <v>2400</v>
@@ -6196,6 +8537,12 @@
       <c r="H238" s="2"/>
       <c r="I238" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6208,6 +8555,8 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
@@ -6219,56 +8568,70 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>523</v>
+        <v>799</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="1" t="s">
-        <v>524</v>
+        <v>800</v>
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="1" t="s">
-        <v>525</v>
+        <v>801</v>
       </c>
       <c r="I241" s="1" t="n">
         <v>31</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>526</v>
+        <v>802</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
-        <v>527</v>
+        <v>805</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="1" t="s">
-        <v>528</v>
+        <v>806</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="1" t="s">
-        <v>529</v>
+        <v>807</v>
       </c>
       <c r="I242" s="2"/>
+      <c r="K242" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1" t="s">
-        <v>530</v>
+        <v>810</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="1" t="s">
-        <v>531</v>
+        <v>811</v>
       </c>
       <c r="G243" s="1" t="n">
         <v>3100</v>
@@ -6276,6 +8639,12 @@
       <c r="H243" s="2"/>
       <c r="I243" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6283,271 +8652,367 @@
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="1" t="s">
-        <v>532</v>
+        <v>814</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="1" t="s">
-        <v>533</v>
+        <v>815</v>
       </c>
       <c r="G244" s="1" t="n">
         <v>3210</v>
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
+      <c r="K244" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="1" t="s">
-        <v>534</v>
+        <v>818</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1" t="s">
-        <v>535</v>
+        <v>819</v>
       </c>
       <c r="G245" s="1" t="n">
         <v>3221</v>
       </c>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
+      <c r="K245" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="1" t="s">
-        <v>536</v>
+        <v>822</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1" t="s">
-        <v>537</v>
+        <v>823</v>
       </c>
       <c r="G246" s="1" t="n">
         <v>3222</v>
       </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
+      <c r="K246" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="1" t="s">
-        <v>538</v>
+        <v>826</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="1" t="s">
-        <v>539</v>
+        <v>827</v>
       </c>
       <c r="G247" s="1" t="n">
         <v>3223</v>
       </c>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
+      <c r="K247" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="1" t="s">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="1" t="s">
-        <v>541</v>
+        <v>831</v>
       </c>
       <c r="G248" s="1" t="n">
         <v>3224</v>
       </c>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
+      <c r="K248" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1" t="s">
-        <v>542</v>
+        <v>834</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="1" t="s">
-        <v>543</v>
+        <v>835</v>
       </c>
       <c r="G249" s="1" t="n">
         <v>3231</v>
       </c>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
+      <c r="K249" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1" t="s">
-        <v>544</v>
+        <v>838</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="1" t="s">
-        <v>545</v>
+        <v>839</v>
       </c>
       <c r="G250" s="1" t="n">
         <v>3232</v>
       </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
+      <c r="K250" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="1" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="1" t="s">
-        <v>546</v>
+        <v>842</v>
       </c>
       <c r="G251" s="1" t="n">
         <v>3234</v>
       </c>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
+      <c r="K251" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="1" t="s">
-        <v>547</v>
+        <v>845</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="1" t="s">
-        <v>548</v>
+        <v>846</v>
       </c>
       <c r="G252" s="1" t="n">
         <v>3236</v>
       </c>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
+      <c r="K252" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="1" t="s">
-        <v>549</v>
+        <v>849</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="1" t="s">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G253" s="1" t="n">
         <v>3237</v>
       </c>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
+      <c r="K253" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="1" t="s">
-        <v>551</v>
+        <v>853</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="1" t="s">
-        <v>552</v>
+        <v>854</v>
       </c>
       <c r="G254" s="1" t="n">
         <v>3241</v>
       </c>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
+      <c r="K254" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1" t="s">
-        <v>553</v>
+        <v>857</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="1" t="s">
-        <v>554</v>
+        <v>858</v>
       </c>
       <c r="G255" s="1" t="n">
         <v>3242</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
+      <c r="K255" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1" t="s">
-        <v>555</v>
+        <v>861</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="1" t="s">
-        <v>556</v>
+        <v>862</v>
       </c>
       <c r="G256" s="1" t="n">
         <v>3243</v>
       </c>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
+      <c r="K256" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1" t="s">
-        <v>557</v>
+        <v>865</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="1" t="s">
-        <v>558</v>
+        <v>866</v>
       </c>
       <c r="G257" s="1" t="n">
         <v>3245</v>
       </c>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
+      <c r="K257" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1" t="s">
-        <v>559</v>
+        <v>869</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="1" t="s">
-        <v>560</v>
+        <v>870</v>
       </c>
       <c r="G258" s="1" t="n">
         <v>3246</v>
       </c>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
+      <c r="K258" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1" t="s">
-        <v>561</v>
+        <v>873</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="1" t="s">
-        <v>562</v>
+        <v>874</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6555,901 +9020,70 @@
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="1" t="s">
-        <v>563</v>
+        <v>877</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="1" t="s">
-        <v>564</v>
+        <v>878</v>
       </c>
       <c r="G260" s="1" t="n">
         <v>5100</v>
       </c>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
+      <c r="K260" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="1" t="s">
-        <v>565</v>
+        <v>881</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="1" t="s">
-        <v>566</v>
+        <v>882</v>
       </c>
       <c r="G261" s="1" t="n">
         <v>5220</v>
       </c>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
+      <c r="K261" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="1" t="s">
-        <v>567</v>
+        <v>885</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="1" t="s">
-        <v>568</v>
+        <v>886</v>
       </c>
       <c r="G262" s="1" t="n">
         <v>5230</v>
       </c>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K262" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
